--- a/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
+++ b/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\rurallegal\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE1867A-CCC0-4C19-8855-C999DC84DD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448109FD-1671-46CB-835C-5566E56FCF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="782" firstSheet="2" activeTab="9" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="782" firstSheet="2" activeTab="2" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicas de Uso" sheetId="10" r:id="rId1"/>
@@ -3557,6 +3557,12 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3620,12 +3626,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3635,6 +3635,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="65">
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -3946,9 +3949,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
@@ -53973,14 +53973,14 @@
     <dataField name="Sum of ValorEspFaixa" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -54105,12 +54105,12 @@
       <calculatedColumnFormula>VLOOKUP(tbFcFaixa[[#This Row],[Faixa]],tbFaixa[],2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{0AABE378-5532-4D2F-BE0B-76BEBD410E33}" name="VTReceitas" dataDxfId="17">
-      <calculatedColumnFormula>SUMIFS(tbRec[ValorEspFaixa],tbRec[Faixa],tbFcFaixa[[#This Row],[Faixa]],tbRec[Idade],tbFcFaixa[[#This Row],[ano]])*tbFcFaixa[[#This Row],[Multiplicador]]*IF(tbFcFaixa[[#This Row],[ano]]&gt;=4,1*(1.5/tbFcFaixa[[#This Row],[ano]]),1)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMIFS(tbRec[ValorEspFaixa],tbRec[Faixa],tbFcFaixa[[#This Row],[Faixa]],tbRec[Idade],tbFcFaixa[[#This Row],[ano]])*tbFcFaixa[[#This Row],[Multiplicador]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{5198B0B0-16AB-4E0C-A7AF-746C61E2A7BF}" name="VTCustos" dataDxfId="16">
       <calculatedColumnFormula>SUMIFS(tbResumo[ValorEspFaixa],tbResumo[Faixa],tbFcFaixa[[#This Row],[Faixa]],tbResumo[Ano],tbFcFaixa[[#This Row],[ano]])*tbFcFaixa[[#This Row],[Multiplicador]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{223E4A16-FBF0-4551-9B41-20351ACAC035}" name="VTLiquido" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="6" xr3:uid="{223E4A16-FBF0-4551-9B41-20351ACAC035}" name="VTLiquido" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="0">
       <calculatedColumnFormula>tbFcFaixa[[#This Row],[VTReceitas]]-tbFcFaixa[[#This Row],[VTCustos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -54119,25 +54119,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}" name="tbDistribuicao" displayName="tbDistribuicao" ref="BU2:BY3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}" name="tbDistribuicao" displayName="tbDistribuicao" ref="BU2:BY3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="BU2:BY3" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{97F0A431-E53A-4173-B7B6-4F327998E570}" name="Faixa" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{20805444-6442-4411-912E-85D698DAB74B}" name="Grupo" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{65663903-6B14-441D-83C6-2B6C59DB8D0E}" name="Especie" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{E5291598-5B87-4B9B-B2F0-7A1B65646F57}" name="NomeCientifico" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{DF6530C5-B271-4164-9526-8AD3E616095D}" name="NrArvores" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{97F0A431-E53A-4173-B7B6-4F327998E570}" name="Faixa" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{20805444-6442-4411-912E-85D698DAB74B}" name="Grupo" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{65663903-6B14-441D-83C6-2B6C59DB8D0E}" name="Especie" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{E5291598-5B87-4B9B-B2F0-7A1B65646F57}" name="NomeCientifico" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{DF6530C5-B271-4164-9526-8AD3E616095D}" name="NrArvores" dataDxfId="7" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}" name="tbUnid" displayName="tbUnid" ref="A1:B2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}" name="tbUnid" displayName="tbUnid" ref="A1:B2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B2" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C44199EF-5CAF-41DE-AC50-9C8ADD924820}" name="Recurso" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{AF9227DF-33D6-480D-9CB7-FD60F7BC1811}" name="Unidade" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C44199EF-5CAF-41DE-AC50-9C8ADD924820}" name="Recurso" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AF9227DF-33D6-480D-9CB7-FD60F7BC1811}" name="Unidade" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -57064,7 +57064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE23690A-A895-4002-97F8-748A1ADF99F4}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -58791,7 +58791,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58841,7 +58841,7 @@
         <v>#N/A</v>
       </c>
       <c r="E2" s="12" t="e">
-        <f>SUMIFS(tbRec[ValorEspFaixa],tbRec[Faixa],tbFcFaixa[[#This Row],[Faixa]],tbRec[Idade],tbFcFaixa[[#This Row],[ano]])*tbFcFaixa[[#This Row],[Multiplicador]]*IF(tbFcFaixa[[#This Row],[ano]]&gt;=4,1*(1.5/tbFcFaixa[[#This Row],[ano]]),1)</f>
+        <f>SUMIFS(tbRec[ValorEspFaixa],tbRec[Faixa],tbFcFaixa[[#This Row],[Faixa]],tbRec[Idade],tbFcFaixa[[#This Row],[ano]])*tbFcFaixa[[#This Row],[Multiplicador]]</f>
         <v>#N/A</v>
       </c>
       <c r="F2" s="12" t="e">
@@ -58897,27 +58897,27 @@
         <v>74</v>
       </c>
       <c r="B1" s="41" t="e">
-        <f>SUM(B3:B32)</f>
+        <f t="shared" ref="B1:G1" si="0">SUM(B3:B32)</f>
         <v>#N/A</v>
       </c>
       <c r="C1" s="41" t="e">
-        <f>SUM(C3:C32)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D1" s="41" t="e">
-        <f>SUM(D3:D32)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="E1" s="41" t="e">
-        <f>SUM(E3:E32)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="F1" s="41" t="e">
-        <f>SUM(F3:F32)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="G1" s="41" t="e">
-        <f>SUM(G3:G32)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="H1" s="41" t="e">
@@ -59029,7 +59029,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="36">
-        <f t="shared" ref="G4:G32" si="0">E4-F4</f>
+        <f t="shared" ref="G4:G32" si="1">E4-F4</f>
         <v>0</v>
       </c>
       <c r="H4" s="37" t="e">
@@ -59077,11 +59077,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="37" t="e">
-        <f t="shared" ref="H5:H32" si="1">H4+D5</f>
+        <f t="shared" ref="H5:H32" si="2">H4+D5</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="18" t="e">
@@ -59125,11 +59125,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I6" s="18" t="e">
@@ -59177,15 +59177,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I7" s="18" t="e">
-        <f t="shared" ref="I7:I32" si="2">I6*(1+$M$8)</f>
+        <f t="shared" ref="I7:I32" si="3">I6*(1+$M$8)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -59214,21 +59214,21 @@
         <v>0</v>
       </c>
       <c r="G8" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="37" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="18" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K8" s="182" t="s">
+      <c r="I8" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="183"/>
+      <c r="L8" s="162"/>
       <c r="M8" s="32">
         <v>7.8899999999999998E-2</v>
       </c>
@@ -59259,15 +59259,15 @@
         <v>0</v>
       </c>
       <c r="G9" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I9" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59296,15 +59296,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I10" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59333,15 +59333,15 @@
         <v>0</v>
       </c>
       <c r="G11" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I11" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59370,15 +59370,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I12" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59407,15 +59407,15 @@
         <v>0</v>
       </c>
       <c r="G13" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I13" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59444,15 +59444,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I14" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59481,15 +59481,15 @@
         <v>0</v>
       </c>
       <c r="G15" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I15" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59518,15 +59518,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I16" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59555,15 +59555,15 @@
         <v>0</v>
       </c>
       <c r="G17" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I17" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59592,15 +59592,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I18" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59629,15 +59629,15 @@
         <v>0</v>
       </c>
       <c r="G19" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I19" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59666,15 +59666,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I20" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59703,15 +59703,15 @@
         <v>0</v>
       </c>
       <c r="G21" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I21" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59740,15 +59740,15 @@
         <v>0</v>
       </c>
       <c r="G22" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I22" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59777,15 +59777,15 @@
         <v>0</v>
       </c>
       <c r="G23" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I23" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59814,15 +59814,15 @@
         <v>0</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I24" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59851,15 +59851,15 @@
         <v>0</v>
       </c>
       <c r="G25" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I25" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59888,15 +59888,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I26" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59925,15 +59925,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I27" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59962,15 +59962,15 @@
         <v>0</v>
       </c>
       <c r="G28" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I28" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -59999,15 +59999,15 @@
         <v>0</v>
       </c>
       <c r="G29" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I29" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -60036,15 +60036,15 @@
         <v>0</v>
       </c>
       <c r="G30" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I30" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -60073,15 +60073,15 @@
         <v>0</v>
       </c>
       <c r="G31" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I31" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -60110,15 +60110,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I32" s="18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -60135,7 +60135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10EA992-D83A-4210-ACEC-3D751E1F72C2}">
   <dimension ref="B1:CZ46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="BS1" workbookViewId="0">
       <selection activeCell="BU3" sqref="BU3"/>
     </sheetView>
   </sheetViews>
@@ -60154,84 +60154,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:104" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="177" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="177"/>
-      <c r="AN1" s="161" t="s">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="178"/>
+      <c r="AF1" s="178"/>
+      <c r="AG1" s="178"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="178"/>
+      <c r="AJ1" s="179"/>
+      <c r="AN1" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="162"/>
-      <c r="AQ1" s="162"/>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
-      <c r="BA1" s="162"/>
-      <c r="BB1" s="162"/>
-      <c r="BC1" s="162"/>
-      <c r="BD1" s="162"/>
-      <c r="BE1" s="162"/>
-      <c r="BF1" s="162"/>
-      <c r="BG1" s="162"/>
-      <c r="BH1" s="162"/>
-      <c r="BI1" s="162"/>
-      <c r="BJ1" s="162"/>
-      <c r="BK1" s="162"/>
-      <c r="BL1" s="162"/>
-      <c r="BM1" s="162"/>
-      <c r="BN1" s="162"/>
-      <c r="BO1" s="162"/>
-      <c r="BP1" s="162"/>
-      <c r="BQ1" s="162"/>
-      <c r="BR1" s="162"/>
-      <c r="BS1" s="163"/>
-      <c r="BU1" s="164" t="s">
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
+      <c r="AU1" s="164"/>
+      <c r="AV1" s="164"/>
+      <c r="AW1" s="164"/>
+      <c r="AX1" s="164"/>
+      <c r="AY1" s="164"/>
+      <c r="AZ1" s="164"/>
+      <c r="BA1" s="164"/>
+      <c r="BB1" s="164"/>
+      <c r="BC1" s="164"/>
+      <c r="BD1" s="164"/>
+      <c r="BE1" s="164"/>
+      <c r="BF1" s="164"/>
+      <c r="BG1" s="164"/>
+      <c r="BH1" s="164"/>
+      <c r="BI1" s="164"/>
+      <c r="BJ1" s="164"/>
+      <c r="BK1" s="164"/>
+      <c r="BL1" s="164"/>
+      <c r="BM1" s="164"/>
+      <c r="BN1" s="164"/>
+      <c r="BO1" s="164"/>
+      <c r="BP1" s="164"/>
+      <c r="BQ1" s="164"/>
+      <c r="BR1" s="164"/>
+      <c r="BS1" s="165"/>
+      <c r="BU1" s="166" t="s">
         <v>336</v>
       </c>
-      <c r="BV1" s="165"/>
-      <c r="BW1" s="165"/>
-      <c r="BX1" s="165"/>
-      <c r="BY1" s="165"/>
+      <c r="BV1" s="167"/>
+      <c r="BW1" s="167"/>
+      <c r="BX1" s="167"/>
+      <c r="BY1" s="167"/>
       <c r="BZ1" s="112"/>
       <c r="CA1" s="112"/>
       <c r="CB1" s="112"/>
@@ -60261,41 +60261,41 @@
       <c r="CZ1" s="113"/>
     </row>
     <row r="2" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="181"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="181"/>
+      <c r="AJ2" s="182"/>
       <c r="AN2" s="103" t="s">
         <v>271</v>
       </c>
@@ -60438,43 +60438,43 @@
       </c>
     </row>
     <row r="4" spans="2:104" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="168" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="167"/>
-      <c r="Z4" s="167"/>
-      <c r="AA4" s="167"/>
-      <c r="AB4" s="167"/>
-      <c r="AC4" s="167"/>
-      <c r="AD4" s="167"/>
-      <c r="AE4" s="167"/>
-      <c r="AF4" s="167"/>
-      <c r="AG4" s="167"/>
-      <c r="AH4" s="167"/>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="169"/>
+      <c r="Y4" s="169"/>
+      <c r="Z4" s="169"/>
+      <c r="AA4" s="169"/>
+      <c r="AB4" s="169"/>
+      <c r="AC4" s="169"/>
+      <c r="AD4" s="169"/>
+      <c r="AE4" s="169"/>
+      <c r="AF4" s="169"/>
+      <c r="AG4" s="169"/>
+      <c r="AH4" s="169"/>
+      <c r="AI4" s="169"/>
+      <c r="AJ4" s="170"/>
       <c r="AN4" s="107" t="s">
         <v>276</v>
       </c>
@@ -60515,41 +60515,41 @@
       <c r="BS4" s="106"/>
     </row>
     <row r="5" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="171"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="172"/>
+      <c r="AD5" s="172"/>
+      <c r="AE5" s="172"/>
+      <c r="AF5" s="172"/>
+      <c r="AG5" s="172"/>
+      <c r="AH5" s="172"/>
+      <c r="AI5" s="172"/>
+      <c r="AJ5" s="173"/>
       <c r="AN5" s="108" t="s">
         <v>280</v>
       </c>
@@ -60590,157 +60590,157 @@
       <c r="BS5" s="111"/>
     </row>
     <row r="6" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="170"/>
-      <c r="V6" s="170"/>
-      <c r="W6" s="170"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="170"/>
-      <c r="Z6" s="170"/>
-      <c r="AA6" s="170"/>
-      <c r="AB6" s="170"/>
-      <c r="AC6" s="170"/>
-      <c r="AD6" s="170"/>
-      <c r="AE6" s="170"/>
-      <c r="AF6" s="170"/>
-      <c r="AG6" s="170"/>
-      <c r="AH6" s="170"/>
-      <c r="AI6" s="170"/>
-      <c r="AJ6" s="171"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="172"/>
+      <c r="Z6" s="172"/>
+      <c r="AA6" s="172"/>
+      <c r="AB6" s="172"/>
+      <c r="AC6" s="172"/>
+      <c r="AD6" s="172"/>
+      <c r="AE6" s="172"/>
+      <c r="AF6" s="172"/>
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="172"/>
+      <c r="AI6" s="172"/>
+      <c r="AJ6" s="173"/>
       <c r="AM6" s="86"/>
       <c r="BS6"/>
     </row>
     <row r="7" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B7" s="169"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170"/>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170"/>
-      <c r="AJ7" s="171"/>
-      <c r="AN7" s="181" t="s">
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="172"/>
+      <c r="V7" s="172"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172"/>
+      <c r="Z7" s="172"/>
+      <c r="AA7" s="172"/>
+      <c r="AB7" s="172"/>
+      <c r="AC7" s="172"/>
+      <c r="AD7" s="172"/>
+      <c r="AE7" s="172"/>
+      <c r="AF7" s="172"/>
+      <c r="AG7" s="172"/>
+      <c r="AH7" s="172"/>
+      <c r="AI7" s="172"/>
+      <c r="AJ7" s="173"/>
+      <c r="AN7" s="183" t="s">
         <v>278</v>
       </c>
-      <c r="AO7" s="181"/>
-      <c r="AP7" s="181"/>
-      <c r="AQ7" s="181"/>
-      <c r="AR7" s="181"/>
-      <c r="AS7" s="181"/>
-      <c r="AT7" s="181"/>
-      <c r="AU7" s="181"/>
-      <c r="AV7" s="181" t="s">
+      <c r="AO7" s="183"/>
+      <c r="AP7" s="183"/>
+      <c r="AQ7" s="183"/>
+      <c r="AR7" s="183"/>
+      <c r="AS7" s="183"/>
+      <c r="AT7" s="183"/>
+      <c r="AU7" s="183"/>
+      <c r="AV7" s="183" t="s">
         <v>279</v>
       </c>
-      <c r="AW7" s="181"/>
-      <c r="AX7" s="181"/>
-      <c r="AY7" s="181"/>
-      <c r="AZ7" s="181"/>
-      <c r="BA7" s="181"/>
-      <c r="BB7" s="181"/>
-      <c r="BC7" s="181"/>
-      <c r="BD7" s="181" t="s">
+      <c r="AW7" s="183"/>
+      <c r="AX7" s="183"/>
+      <c r="AY7" s="183"/>
+      <c r="AZ7" s="183"/>
+      <c r="BA7" s="183"/>
+      <c r="BB7" s="183"/>
+      <c r="BC7" s="183"/>
+      <c r="BD7" s="183" t="s">
         <v>278</v>
       </c>
-      <c r="BE7" s="181"/>
-      <c r="BF7" s="181"/>
-      <c r="BG7" s="181"/>
-      <c r="BH7" s="181"/>
-      <c r="BI7" s="181"/>
-      <c r="BJ7" s="181"/>
-      <c r="BK7" s="181"/>
-      <c r="BL7" s="181" t="s">
+      <c r="BE7" s="183"/>
+      <c r="BF7" s="183"/>
+      <c r="BG7" s="183"/>
+      <c r="BH7" s="183"/>
+      <c r="BI7" s="183"/>
+      <c r="BJ7" s="183"/>
+      <c r="BK7" s="183"/>
+      <c r="BL7" s="183" t="s">
         <v>279</v>
       </c>
-      <c r="BM7" s="181"/>
-      <c r="BN7" s="181"/>
-      <c r="BO7" s="181"/>
-      <c r="BP7" s="181"/>
-      <c r="BQ7" s="181"/>
-      <c r="BR7" s="181"/>
-      <c r="BS7" s="181"/>
+      <c r="BM7" s="183"/>
+      <c r="BN7" s="183"/>
+      <c r="BO7" s="183"/>
+      <c r="BP7" s="183"/>
+      <c r="BQ7" s="183"/>
+      <c r="BR7" s="183"/>
+      <c r="BS7" s="183"/>
     </row>
     <row r="8" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B8" s="169"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="170"/>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="170"/>
-      <c r="AE8" s="170"/>
-      <c r="AF8" s="170"/>
-      <c r="AG8" s="170"/>
-      <c r="AH8" s="170"/>
-      <c r="AI8" s="170"/>
-      <c r="AJ8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172"/>
+      <c r="AE8" s="172"/>
+      <c r="AF8" s="172"/>
+      <c r="AG8" s="172"/>
+      <c r="AH8" s="172"/>
+      <c r="AI8" s="172"/>
+      <c r="AJ8" s="173"/>
       <c r="AN8" s="128">
         <v>1</v>
       </c>
@@ -60839,78 +60839,78 @@
       </c>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B9" s="169"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="170"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="170"/>
-      <c r="AJ9" s="171"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="172"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="172"/>
+      <c r="AH9" s="172"/>
+      <c r="AI9" s="172"/>
+      <c r="AJ9" s="173"/>
     </row>
     <row r="10" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B10" s="169"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="170"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="170"/>
-      <c r="AI10" s="170"/>
-      <c r="AJ10" s="171"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="172"/>
+      <c r="AI10" s="172"/>
+      <c r="AJ10" s="173"/>
       <c r="AL10" s="149">
         <v>1</v>
       </c>
@@ -61012,41 +61012,41 @@
       </c>
     </row>
     <row r="11" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B11" s="169"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="170"/>
-      <c r="AA11" s="170"/>
-      <c r="AB11" s="170"/>
-      <c r="AC11" s="170"/>
-      <c r="AD11" s="170"/>
-      <c r="AE11" s="170"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="170"/>
-      <c r="AH11" s="170"/>
-      <c r="AI11" s="170"/>
-      <c r="AJ11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="172"/>
+      <c r="AJ11" s="173"/>
       <c r="AL11" s="150">
         <v>2</v>
       </c>
@@ -61148,41 +61148,41 @@
       </c>
     </row>
     <row r="12" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B12" s="169"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
-      <c r="Y12" s="170"/>
-      <c r="Z12" s="170"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="170"/>
-      <c r="AC12" s="170"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="170"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="170"/>
-      <c r="AH12" s="170"/>
-      <c r="AI12" s="170"/>
-      <c r="AJ12" s="171"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="172"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="172"/>
+      <c r="T12" s="172"/>
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="172"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="172"/>
+      <c r="AH12" s="172"/>
+      <c r="AI12" s="172"/>
+      <c r="AJ12" s="173"/>
       <c r="AL12" s="150">
         <v>3</v>
       </c>
@@ -61284,41 +61284,41 @@
       </c>
     </row>
     <row r="13" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B13" s="169"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="170"/>
-      <c r="V13" s="170"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="170"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="170"/>
-      <c r="AA13" s="170"/>
-      <c r="AB13" s="170"/>
-      <c r="AC13" s="170"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="170"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="170"/>
-      <c r="AH13" s="170"/>
-      <c r="AI13" s="170"/>
-      <c r="AJ13" s="171"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="172"/>
+      <c r="Y13" s="172"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="172"/>
+      <c r="AC13" s="172"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="172"/>
+      <c r="AF13" s="172"/>
+      <c r="AG13" s="172"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="172"/>
+      <c r="AJ13" s="173"/>
       <c r="AL13" s="150">
         <v>4</v>
       </c>
@@ -61420,41 +61420,41 @@
       </c>
     </row>
     <row r="14" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-      <c r="V14" s="170"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="170"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="170"/>
-      <c r="AC14" s="170"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="170"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="170"/>
-      <c r="AH14" s="170"/>
-      <c r="AI14" s="170"/>
-      <c r="AJ14" s="171"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="172"/>
+      <c r="T14" s="172"/>
+      <c r="U14" s="172"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="172"/>
+      <c r="Y14" s="172"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="172"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="172"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="172"/>
+      <c r="AJ14" s="173"/>
       <c r="AL14" s="150">
         <v>5</v>
       </c>
@@ -61556,41 +61556,41 @@
       </c>
     </row>
     <row r="15" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="170"/>
-      <c r="V15" s="170"/>
-      <c r="W15" s="170"/>
-      <c r="X15" s="170"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="170"/>
-      <c r="AA15" s="170"/>
-      <c r="AB15" s="170"/>
-      <c r="AC15" s="170"/>
-      <c r="AD15" s="170"/>
-      <c r="AE15" s="170"/>
-      <c r="AF15" s="170"/>
-      <c r="AG15" s="170"/>
-      <c r="AH15" s="170"/>
-      <c r="AI15" s="170"/>
-      <c r="AJ15" s="171"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="172"/>
+      <c r="T15" s="172"/>
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="172"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="172"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="173"/>
       <c r="AL15" s="150">
         <v>6</v>
       </c>
@@ -61692,41 +61692,41 @@
       </c>
     </row>
     <row r="16" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B16" s="169"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="170"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="170"/>
-      <c r="U16" s="170"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="170"/>
-      <c r="X16" s="170"/>
-      <c r="Y16" s="170"/>
-      <c r="Z16" s="170"/>
-      <c r="AA16" s="170"/>
-      <c r="AB16" s="170"/>
-      <c r="AC16" s="170"/>
-      <c r="AD16" s="170"/>
-      <c r="AE16" s="170"/>
-      <c r="AF16" s="170"/>
-      <c r="AG16" s="170"/>
-      <c r="AH16" s="170"/>
-      <c r="AI16" s="170"/>
-      <c r="AJ16" s="171"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="172"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="172"/>
+      <c r="AH16" s="172"/>
+      <c r="AI16" s="172"/>
+      <c r="AJ16" s="173"/>
       <c r="AL16" s="150">
         <v>7</v>
       </c>
@@ -61828,41 +61828,41 @@
       </c>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B17" s="169"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="170"/>
-      <c r="W17" s="170"/>
-      <c r="X17" s="170"/>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="170"/>
-      <c r="AA17" s="170"/>
-      <c r="AB17" s="170"/>
-      <c r="AC17" s="170"/>
-      <c r="AD17" s="170"/>
-      <c r="AE17" s="170"/>
-      <c r="AF17" s="170"/>
-      <c r="AG17" s="170"/>
-      <c r="AH17" s="170"/>
-      <c r="AI17" s="170"/>
-      <c r="AJ17" s="171"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="172"/>
+      <c r="AB17" s="172"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="172"/>
+      <c r="AF17" s="172"/>
+      <c r="AG17" s="172"/>
+      <c r="AH17" s="172"/>
+      <c r="AI17" s="172"/>
+      <c r="AJ17" s="173"/>
       <c r="AL17" s="150">
         <v>8</v>
       </c>
@@ -61964,41 +61964,41 @@
       </c>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="170"/>
-      <c r="W18" s="170"/>
-      <c r="X18" s="170"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="170"/>
-      <c r="AA18" s="170"/>
-      <c r="AB18" s="170"/>
-      <c r="AC18" s="170"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="170"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="170"/>
-      <c r="AH18" s="170"/>
-      <c r="AI18" s="170"/>
-      <c r="AJ18" s="171"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="172"/>
+      <c r="AJ18" s="173"/>
       <c r="AL18" s="150">
         <v>9</v>
       </c>
@@ -62100,41 +62100,41 @@
       </c>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B19" s="169"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="170"/>
-      <c r="V19" s="170"/>
-      <c r="W19" s="170"/>
-      <c r="X19" s="170"/>
-      <c r="Y19" s="170"/>
-      <c r="Z19" s="170"/>
-      <c r="AA19" s="170"/>
-      <c r="AB19" s="170"/>
-      <c r="AC19" s="170"/>
-      <c r="AD19" s="170"/>
-      <c r="AE19" s="170"/>
-      <c r="AF19" s="170"/>
-      <c r="AG19" s="170"/>
-      <c r="AH19" s="170"/>
-      <c r="AI19" s="170"/>
-      <c r="AJ19" s="171"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="172"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="172"/>
+      <c r="AA19" s="172"/>
+      <c r="AB19" s="172"/>
+      <c r="AC19" s="172"/>
+      <c r="AD19" s="172"/>
+      <c r="AE19" s="172"/>
+      <c r="AF19" s="172"/>
+      <c r="AG19" s="172"/>
+      <c r="AH19" s="172"/>
+      <c r="AI19" s="172"/>
+      <c r="AJ19" s="173"/>
       <c r="AL19" s="150">
         <v>10</v>
       </c>
@@ -62236,41 +62236,41 @@
       </c>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B20" s="169"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="170"/>
-      <c r="U20" s="170"/>
-      <c r="V20" s="170"/>
-      <c r="W20" s="170"/>
-      <c r="X20" s="170"/>
-      <c r="Y20" s="170"/>
-      <c r="Z20" s="170"/>
-      <c r="AA20" s="170"/>
-      <c r="AB20" s="170"/>
-      <c r="AC20" s="170"/>
-      <c r="AD20" s="170"/>
-      <c r="AE20" s="170"/>
-      <c r="AF20" s="170"/>
-      <c r="AG20" s="170"/>
-      <c r="AH20" s="170"/>
-      <c r="AI20" s="170"/>
-      <c r="AJ20" s="171"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="172"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="172"/>
+      <c r="Z20" s="172"/>
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="172"/>
+      <c r="AD20" s="172"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="172"/>
+      <c r="AH20" s="172"/>
+      <c r="AI20" s="172"/>
+      <c r="AJ20" s="173"/>
       <c r="AL20" s="150">
         <v>11</v>
       </c>
@@ -62372,41 +62372,41 @@
       </c>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B21" s="169"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="170"/>
-      <c r="S21" s="170"/>
-      <c r="T21" s="170"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="170"/>
-      <c r="W21" s="170"/>
-      <c r="X21" s="170"/>
-      <c r="Y21" s="170"/>
-      <c r="Z21" s="170"/>
-      <c r="AA21" s="170"/>
-      <c r="AB21" s="170"/>
-      <c r="AC21" s="170"/>
-      <c r="AD21" s="170"/>
-      <c r="AE21" s="170"/>
-      <c r="AF21" s="170"/>
-      <c r="AG21" s="170"/>
-      <c r="AH21" s="170"/>
-      <c r="AI21" s="170"/>
-      <c r="AJ21" s="171"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="172"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="172"/>
+      <c r="AC21" s="172"/>
+      <c r="AD21" s="172"/>
+      <c r="AE21" s="172"/>
+      <c r="AF21" s="172"/>
+      <c r="AG21" s="172"/>
+      <c r="AH21" s="172"/>
+      <c r="AI21" s="172"/>
+      <c r="AJ21" s="173"/>
       <c r="AL21" s="150">
         <v>12</v>
       </c>
@@ -62508,41 +62508,41 @@
       </c>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B22" s="169"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="170"/>
-      <c r="S22" s="170"/>
-      <c r="T22" s="170"/>
-      <c r="U22" s="170"/>
-      <c r="V22" s="170"/>
-      <c r="W22" s="170"/>
-      <c r="X22" s="170"/>
-      <c r="Y22" s="170"/>
-      <c r="Z22" s="170"/>
-      <c r="AA22" s="170"/>
-      <c r="AB22" s="170"/>
-      <c r="AC22" s="170"/>
-      <c r="AD22" s="170"/>
-      <c r="AE22" s="170"/>
-      <c r="AF22" s="170"/>
-      <c r="AG22" s="170"/>
-      <c r="AH22" s="170"/>
-      <c r="AI22" s="170"/>
-      <c r="AJ22" s="171"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
+      <c r="Y22" s="172"/>
+      <c r="Z22" s="172"/>
+      <c r="AA22" s="172"/>
+      <c r="AB22" s="172"/>
+      <c r="AC22" s="172"/>
+      <c r="AD22" s="172"/>
+      <c r="AE22" s="172"/>
+      <c r="AF22" s="172"/>
+      <c r="AG22" s="172"/>
+      <c r="AH22" s="172"/>
+      <c r="AI22" s="172"/>
+      <c r="AJ22" s="173"/>
       <c r="AL22" s="150">
         <v>13</v>
       </c>
@@ -62644,41 +62644,41 @@
       </c>
     </row>
     <row r="23" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B23" s="169"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="170"/>
-      <c r="V23" s="170"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="170"/>
-      <c r="Y23" s="170"/>
-      <c r="Z23" s="170"/>
-      <c r="AA23" s="170"/>
-      <c r="AB23" s="170"/>
-      <c r="AC23" s="170"/>
-      <c r="AD23" s="170"/>
-      <c r="AE23" s="170"/>
-      <c r="AF23" s="170"/>
-      <c r="AG23" s="170"/>
-      <c r="AH23" s="170"/>
-      <c r="AI23" s="170"/>
-      <c r="AJ23" s="171"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="172"/>
+      <c r="T23" s="172"/>
+      <c r="U23" s="172"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="172"/>
+      <c r="X23" s="172"/>
+      <c r="Y23" s="172"/>
+      <c r="Z23" s="172"/>
+      <c r="AA23" s="172"/>
+      <c r="AB23" s="172"/>
+      <c r="AC23" s="172"/>
+      <c r="AD23" s="172"/>
+      <c r="AE23" s="172"/>
+      <c r="AF23" s="172"/>
+      <c r="AG23" s="172"/>
+      <c r="AH23" s="172"/>
+      <c r="AI23" s="172"/>
+      <c r="AJ23" s="173"/>
       <c r="AL23" s="150">
         <v>14</v>
       </c>
@@ -62780,41 +62780,41 @@
       </c>
     </row>
     <row r="24" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B24" s="169"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
-      <c r="U24" s="170"/>
-      <c r="V24" s="170"/>
-      <c r="W24" s="170"/>
-      <c r="X24" s="170"/>
-      <c r="Y24" s="170"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="170"/>
-      <c r="AC24" s="170"/>
-      <c r="AD24" s="170"/>
-      <c r="AE24" s="170"/>
-      <c r="AF24" s="170"/>
-      <c r="AG24" s="170"/>
-      <c r="AH24" s="170"/>
-      <c r="AI24" s="170"/>
-      <c r="AJ24" s="171"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="172"/>
+      <c r="U24" s="172"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="172"/>
+      <c r="X24" s="172"/>
+      <c r="Y24" s="172"/>
+      <c r="Z24" s="172"/>
+      <c r="AA24" s="172"/>
+      <c r="AB24" s="172"/>
+      <c r="AC24" s="172"/>
+      <c r="AD24" s="172"/>
+      <c r="AE24" s="172"/>
+      <c r="AF24" s="172"/>
+      <c r="AG24" s="172"/>
+      <c r="AH24" s="172"/>
+      <c r="AI24" s="172"/>
+      <c r="AJ24" s="173"/>
       <c r="AL24" s="150">
         <v>15</v>
       </c>
@@ -62916,41 +62916,41 @@
       </c>
     </row>
     <row r="25" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B25" s="169"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-      <c r="V25" s="170"/>
-      <c r="W25" s="170"/>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="170"/>
-      <c r="AD25" s="170"/>
-      <c r="AE25" s="170"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="170"/>
-      <c r="AH25" s="170"/>
-      <c r="AI25" s="170"/>
-      <c r="AJ25" s="171"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="172"/>
+      <c r="X25" s="172"/>
+      <c r="Y25" s="172"/>
+      <c r="Z25" s="172"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="172"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="172"/>
+      <c r="AJ25" s="173"/>
       <c r="AL25" s="150">
         <v>16</v>
       </c>
@@ -63052,41 +63052,41 @@
       </c>
     </row>
     <row r="26" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B26" s="169"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="170"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="170"/>
-      <c r="AB26" s="170"/>
-      <c r="AC26" s="170"/>
-      <c r="AD26" s="170"/>
-      <c r="AE26" s="170"/>
-      <c r="AF26" s="170"/>
-      <c r="AG26" s="170"/>
-      <c r="AH26" s="170"/>
-      <c r="AI26" s="170"/>
-      <c r="AJ26" s="171"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="172"/>
+      <c r="Y26" s="172"/>
+      <c r="Z26" s="172"/>
+      <c r="AA26" s="172"/>
+      <c r="AB26" s="172"/>
+      <c r="AC26" s="172"/>
+      <c r="AD26" s="172"/>
+      <c r="AE26" s="172"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="172"/>
+      <c r="AH26" s="172"/>
+      <c r="AI26" s="172"/>
+      <c r="AJ26" s="173"/>
       <c r="AL26" s="150">
         <v>17</v>
       </c>
@@ -63188,41 +63188,41 @@
       </c>
     </row>
     <row r="27" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B27" s="169"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-      <c r="V27" s="170"/>
-      <c r="W27" s="170"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="170"/>
-      <c r="AB27" s="170"/>
-      <c r="AC27" s="170"/>
-      <c r="AD27" s="170"/>
-      <c r="AE27" s="170"/>
-      <c r="AF27" s="170"/>
-      <c r="AG27" s="170"/>
-      <c r="AH27" s="170"/>
-      <c r="AI27" s="170"/>
-      <c r="AJ27" s="171"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="172"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="172"/>
+      <c r="X27" s="172"/>
+      <c r="Y27" s="172"/>
+      <c r="Z27" s="172"/>
+      <c r="AA27" s="172"/>
+      <c r="AB27" s="172"/>
+      <c r="AC27" s="172"/>
+      <c r="AD27" s="172"/>
+      <c r="AE27" s="172"/>
+      <c r="AF27" s="172"/>
+      <c r="AG27" s="172"/>
+      <c r="AH27" s="172"/>
+      <c r="AI27" s="172"/>
+      <c r="AJ27" s="173"/>
       <c r="AL27" s="150">
         <v>18</v>
       </c>
@@ -63324,41 +63324,41 @@
       </c>
     </row>
     <row r="28" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B28" s="169"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-      <c r="V28" s="170"/>
-      <c r="W28" s="170"/>
-      <c r="X28" s="170"/>
-      <c r="Y28" s="170"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="170"/>
-      <c r="AB28" s="170"/>
-      <c r="AC28" s="170"/>
-      <c r="AD28" s="170"/>
-      <c r="AE28" s="170"/>
-      <c r="AF28" s="170"/>
-      <c r="AG28" s="170"/>
-      <c r="AH28" s="170"/>
-      <c r="AI28" s="170"/>
-      <c r="AJ28" s="171"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="172"/>
+      <c r="U28" s="172"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="172"/>
+      <c r="X28" s="172"/>
+      <c r="Y28" s="172"/>
+      <c r="Z28" s="172"/>
+      <c r="AA28" s="172"/>
+      <c r="AB28" s="172"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="172"/>
+      <c r="AF28" s="172"/>
+      <c r="AG28" s="172"/>
+      <c r="AH28" s="172"/>
+      <c r="AI28" s="172"/>
+      <c r="AJ28" s="173"/>
       <c r="AL28" s="150">
         <v>19</v>
       </c>
@@ -63460,41 +63460,41 @@
       </c>
     </row>
     <row r="29" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="170"/>
-      <c r="V29" s="170"/>
-      <c r="W29" s="170"/>
-      <c r="X29" s="170"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="170"/>
-      <c r="AB29" s="170"/>
-      <c r="AC29" s="170"/>
-      <c r="AD29" s="170"/>
-      <c r="AE29" s="170"/>
-      <c r="AF29" s="170"/>
-      <c r="AG29" s="170"/>
-      <c r="AH29" s="170"/>
-      <c r="AI29" s="170"/>
-      <c r="AJ29" s="171"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="172"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="172"/>
+      <c r="X29" s="172"/>
+      <c r="Y29" s="172"/>
+      <c r="Z29" s="172"/>
+      <c r="AA29" s="172"/>
+      <c r="AB29" s="172"/>
+      <c r="AC29" s="172"/>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="172"/>
+      <c r="AF29" s="172"/>
+      <c r="AG29" s="172"/>
+      <c r="AH29" s="172"/>
+      <c r="AI29" s="172"/>
+      <c r="AJ29" s="173"/>
       <c r="AL29" s="150">
         <v>20</v>
       </c>
@@ -63596,41 +63596,41 @@
       </c>
     </row>
     <row r="30" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
-      <c r="U30" s="170"/>
-      <c r="V30" s="170"/>
-      <c r="W30" s="170"/>
-      <c r="X30" s="170"/>
-      <c r="Y30" s="170"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="170"/>
-      <c r="AB30" s="170"/>
-      <c r="AC30" s="170"/>
-      <c r="AD30" s="170"/>
-      <c r="AE30" s="170"/>
-      <c r="AF30" s="170"/>
-      <c r="AG30" s="170"/>
-      <c r="AH30" s="170"/>
-      <c r="AI30" s="170"/>
-      <c r="AJ30" s="171"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="172"/>
+      <c r="S30" s="172"/>
+      <c r="T30" s="172"/>
+      <c r="U30" s="172"/>
+      <c r="V30" s="172"/>
+      <c r="W30" s="172"/>
+      <c r="X30" s="172"/>
+      <c r="Y30" s="172"/>
+      <c r="Z30" s="172"/>
+      <c r="AA30" s="172"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="172"/>
+      <c r="AD30" s="172"/>
+      <c r="AE30" s="172"/>
+      <c r="AF30" s="172"/>
+      <c r="AG30" s="172"/>
+      <c r="AH30" s="172"/>
+      <c r="AI30" s="172"/>
+      <c r="AJ30" s="173"/>
       <c r="AL30" s="150">
         <v>21</v>
       </c>
@@ -63732,41 +63732,41 @@
       </c>
     </row>
     <row r="31" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170"/>
-      <c r="AB31" s="170"/>
-      <c r="AC31" s="170"/>
-      <c r="AD31" s="170"/>
-      <c r="AE31" s="170"/>
-      <c r="AF31" s="170"/>
-      <c r="AG31" s="170"/>
-      <c r="AH31" s="170"/>
-      <c r="AI31" s="170"/>
-      <c r="AJ31" s="171"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="172"/>
+      <c r="L31" s="172"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="172"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="172"/>
+      <c r="R31" s="172"/>
+      <c r="S31" s="172"/>
+      <c r="T31" s="172"/>
+      <c r="U31" s="172"/>
+      <c r="V31" s="172"/>
+      <c r="W31" s="172"/>
+      <c r="X31" s="172"/>
+      <c r="Y31" s="172"/>
+      <c r="Z31" s="172"/>
+      <c r="AA31" s="172"/>
+      <c r="AB31" s="172"/>
+      <c r="AC31" s="172"/>
+      <c r="AD31" s="172"/>
+      <c r="AE31" s="172"/>
+      <c r="AF31" s="172"/>
+      <c r="AG31" s="172"/>
+      <c r="AH31" s="172"/>
+      <c r="AI31" s="172"/>
+      <c r="AJ31" s="173"/>
       <c r="AL31" s="150">
         <v>22</v>
       </c>
@@ -63868,41 +63868,41 @@
       </c>
     </row>
     <row r="32" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B32" s="169"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-      <c r="V32" s="170"/>
-      <c r="W32" s="170"/>
-      <c r="X32" s="170"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="170"/>
-      <c r="AB32" s="170"/>
-      <c r="AC32" s="170"/>
-      <c r="AD32" s="170"/>
-      <c r="AE32" s="170"/>
-      <c r="AF32" s="170"/>
-      <c r="AG32" s="170"/>
-      <c r="AH32" s="170"/>
-      <c r="AI32" s="170"/>
-      <c r="AJ32" s="171"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="172"/>
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="172"/>
+      <c r="U32" s="172"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="172"/>
+      <c r="X32" s="172"/>
+      <c r="Y32" s="172"/>
+      <c r="Z32" s="172"/>
+      <c r="AA32" s="172"/>
+      <c r="AB32" s="172"/>
+      <c r="AC32" s="172"/>
+      <c r="AD32" s="172"/>
+      <c r="AE32" s="172"/>
+      <c r="AF32" s="172"/>
+      <c r="AG32" s="172"/>
+      <c r="AH32" s="172"/>
+      <c r="AI32" s="172"/>
+      <c r="AJ32" s="173"/>
       <c r="AL32" s="150">
         <v>23</v>
       </c>
@@ -64004,41 +64004,41 @@
       </c>
     </row>
     <row r="33" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B33" s="169"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-      <c r="V33" s="170"/>
-      <c r="W33" s="170"/>
-      <c r="X33" s="170"/>
-      <c r="Y33" s="170"/>
-      <c r="Z33" s="170"/>
-      <c r="AA33" s="170"/>
-      <c r="AB33" s="170"/>
-      <c r="AC33" s="170"/>
-      <c r="AD33" s="170"/>
-      <c r="AE33" s="170"/>
-      <c r="AF33" s="170"/>
-      <c r="AG33" s="170"/>
-      <c r="AH33" s="170"/>
-      <c r="AI33" s="170"/>
-      <c r="AJ33" s="171"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="172"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="172"/>
+      <c r="X33" s="172"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="172"/>
+      <c r="AA33" s="172"/>
+      <c r="AB33" s="172"/>
+      <c r="AC33" s="172"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="172"/>
+      <c r="AF33" s="172"/>
+      <c r="AG33" s="172"/>
+      <c r="AH33" s="172"/>
+      <c r="AI33" s="172"/>
+      <c r="AJ33" s="173"/>
       <c r="AL33" s="150">
         <v>24</v>
       </c>
@@ -64140,41 +64140,41 @@
       </c>
     </row>
     <row r="34" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B34" s="172"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="173"/>
-      <c r="T34" s="173"/>
-      <c r="U34" s="173"/>
-      <c r="V34" s="173"/>
-      <c r="W34" s="173"/>
-      <c r="X34" s="173"/>
-      <c r="Y34" s="173"/>
-      <c r="Z34" s="173"/>
-      <c r="AA34" s="173"/>
-      <c r="AB34" s="173"/>
-      <c r="AC34" s="173"/>
-      <c r="AD34" s="173"/>
-      <c r="AE34" s="173"/>
-      <c r="AF34" s="173"/>
-      <c r="AG34" s="173"/>
-      <c r="AH34" s="173"/>
-      <c r="AI34" s="173"/>
-      <c r="AJ34" s="174"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="175"/>
+      <c r="W34" s="175"/>
+      <c r="X34" s="175"/>
+      <c r="Y34" s="175"/>
+      <c r="Z34" s="175"/>
+      <c r="AA34" s="175"/>
+      <c r="AB34" s="175"/>
+      <c r="AC34" s="175"/>
+      <c r="AD34" s="175"/>
+      <c r="AE34" s="175"/>
+      <c r="AF34" s="175"/>
+      <c r="AG34" s="175"/>
+      <c r="AH34" s="175"/>
+      <c r="AI34" s="175"/>
+      <c r="AJ34" s="176"/>
       <c r="AL34" s="150">
         <v>25</v>
       </c>

--- a/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
+++ b/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448109FD-1671-46CB-835C-5566E56FCF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5046024F-7291-453E-B9DB-0297BCBEBEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="782" firstSheet="2" activeTab="2" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="782" firstSheet="2" activeTab="7" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicas de Uso" sheetId="10" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <definedName name="nomeRegiaoEco">Identificação!$E$22</definedName>
     <definedName name="nomeTopografia">Identificação!$D$24</definedName>
     <definedName name="TxDsc">Parametros!$G$2</definedName>
+    <definedName name="TxPoup">FluxoCaixaModelo!$M$8</definedName>
     <definedName name="username">Identificação!$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -3636,9 +3637,6 @@
   </cellStyles>
   <dxfs count="65">
     <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
@@ -3949,6 +3947,9 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
@@ -53973,14 +53974,14 @@
     <dataField name="Sum of ValorEspFaixa" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -54110,7 +54111,7 @@
     <tableColumn id="5" xr3:uid="{5198B0B0-16AB-4E0C-A7AF-746C61E2A7BF}" name="VTCustos" dataDxfId="16">
       <calculatedColumnFormula>SUMIFS(tbResumo[ValorEspFaixa],tbResumo[Faixa],tbFcFaixa[[#This Row],[Faixa]],tbResumo[Ano],tbFcFaixa[[#This Row],[ano]])*tbFcFaixa[[#This Row],[Multiplicador]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{223E4A16-FBF0-4551-9B41-20351ACAC035}" name="VTLiquido" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{223E4A16-FBF0-4551-9B41-20351ACAC035}" name="VTLiquido" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>tbFcFaixa[[#This Row],[VTReceitas]]-tbFcFaixa[[#This Row],[VTCustos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -54119,25 +54120,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}" name="tbDistribuicao" displayName="tbDistribuicao" ref="BU2:BY3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}" name="tbDistribuicao" displayName="tbDistribuicao" ref="BU2:BY3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="BU2:BY3" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{97F0A431-E53A-4173-B7B6-4F327998E570}" name="Faixa" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{20805444-6442-4411-912E-85D698DAB74B}" name="Grupo" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{65663903-6B14-441D-83C6-2B6C59DB8D0E}" name="Especie" dataDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{E5291598-5B87-4B9B-B2F0-7A1B65646F57}" name="NomeCientifico" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{DF6530C5-B271-4164-9526-8AD3E616095D}" name="NrArvores" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{97F0A431-E53A-4173-B7B6-4F327998E570}" name="Faixa" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{20805444-6442-4411-912E-85D698DAB74B}" name="Grupo" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{65663903-6B14-441D-83C6-2B6C59DB8D0E}" name="Especie" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{E5291598-5B87-4B9B-B2F0-7A1B65646F57}" name="NomeCientifico" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{DF6530C5-B271-4164-9526-8AD3E616095D}" name="NrArvores" dataDxfId="6" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}" name="tbUnid" displayName="tbUnid" ref="A1:B2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}" name="tbUnid" displayName="tbUnid" ref="A1:B2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:B2" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C44199EF-5CAF-41DE-AC50-9C8ADD924820}" name="Recurso" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{AF9227DF-33D6-480D-9CB7-FD60F7BC1811}" name="Unidade" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C44199EF-5CAF-41DE-AC50-9C8ADD924820}" name="Recurso" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AF9227DF-33D6-480D-9CB7-FD60F7BC1811}" name="Unidade" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -57064,7 +57065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE23690A-A895-4002-97F8-748A1ADF99F4}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -58874,8 +58875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF35BF8E-2710-4D4E-B34B-677E5C2E0561}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58991,7 +58992,7 @@
         <v>#N/A</v>
       </c>
       <c r="I3" s="18" t="e">
-        <f>G3*-1</f>
+        <f>IF(A3&lt;$M$4,0,IF(A3=$M$4,$M$5,1))</f>
         <v>#N/A</v>
       </c>
       <c r="K3" s="19" t="s">
@@ -59037,7 +59038,7 @@
         <v>#N/A</v>
       </c>
       <c r="I4" s="18" t="e">
-        <f>(I3*(1+$M$8))-G4</f>
+        <f>IF(A4&lt;$M$4,0,IF(A4=$M$4,$M$5,I3*(1+$M$8)))</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="22" t="s">
@@ -59085,7 +59086,7 @@
         <v>#N/A</v>
       </c>
       <c r="I5" s="18" t="e">
-        <f>(I4*(1+M8))-G5</f>
+        <f t="shared" ref="I5:I32" si="3">IF(A5&lt;$M$4,0,IF(A5=$M$4,$M$5,I4*(1+$M$8)))</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -59133,7 +59134,7 @@
         <v>#N/A</v>
       </c>
       <c r="I6" s="18" t="e">
-        <f>I5*(1+$M$8)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="K6" s="25" t="str">
@@ -59185,7 +59186,7 @@
         <v>#N/A</v>
       </c>
       <c r="I7" s="18" t="e">
-        <f t="shared" ref="I7:I32" si="3">I6*(1+$M$8)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>

--- a/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
+++ b/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5046024F-7291-453E-B9DB-0297BCBEBEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F515D1-3E62-4F66-A01A-7682E4819EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="782" firstSheet="2" activeTab="7" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="2" activeTab="3" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicas de Uso" sheetId="10" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <definedName name="nomeRegiaoAdm">Identificação!$E$23</definedName>
     <definedName name="nomeRegiaoEco">Identificação!$E$22</definedName>
     <definedName name="nomeTopografia">Identificação!$D$24</definedName>
-    <definedName name="TxDsc">Parametros!$G$2</definedName>
+    <definedName name="TxDsc">Parametros!$H$2</definedName>
     <definedName name="TxPoup">FluxoCaixaModelo!$M$8</definedName>
     <definedName name="username">Identificação!$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="6" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="338">
   <si>
     <t>Verde</t>
   </si>
@@ -2288,26 +2288,34 @@
   <si>
     <t>Quantidade de mudas por espécie no hectare e em que grupo cada espécie foi incluída</t>
   </si>
+  <si>
+    <t>areaFaixa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3215,29 +3223,29 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="40" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3252,7 +3260,7 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="38" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3262,9 +3270,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="40" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3276,13 +3284,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3297,37 +3305,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3339,40 +3347,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3385,19 +3393,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -3405,10 +3413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3417,7 +3422,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3430,10 +3438,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3443,10 +3451,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -3483,10 +3491,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3501,7 +3509,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3516,7 +3524,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3531,31 +3539,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3564,19 +3572,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3606,22 +3614,22 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3637,10 +3645,10 @@
   </cellStyles>
   <dxfs count="65">
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3738,7 +3746,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3771,7 +3779,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3806,7 +3814,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3839,7 +3847,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3874,7 +3882,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3940,7 +3948,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3949,16 +3957,16 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00;[Red]\-#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="#,##0.00;[Red]\-#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3973,7 +3981,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4000,7 +4008,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4255,7 +4263,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4264,7 +4272,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+      <numFmt numFmtId="165" formatCode="#,##0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4273,7 +4281,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+      <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4539,7 +4547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5255,7 +5263,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750736943"/>
@@ -5317,7 +5325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750736527"/>
@@ -5359,7 +5367,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5396,7 +5404,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6222,13 +6230,13 @@
     <cacheField name="siglaUnidade" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Preco" numFmtId="166">
+    <cacheField name="Preco" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0999999999999999E-2" maxValue="273.079986572265"/>
     </cacheField>
-    <cacheField name="qtdRecEspFaixa" numFmtId="167">
+    <cacheField name="qtdRecEspFaixa" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5500000000000003E-3" maxValue="42.673499999999997"/>
     </cacheField>
-    <cacheField name="ValorEspFaixa" numFmtId="168">
+    <cacheField name="ValorEspFaixa" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5646620000000001E-3" maxValue="425.952"/>
     </cacheField>
   </cacheFields>
@@ -53718,7 +53726,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F0E4673-DC4E-4FE2-BD2D-5EED45AEFA54}" name="tbDinSilvicultura" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F0E4673-DC4E-4FE2-BD2D-5EED45AEFA54}" name="tbDinSilvicultura" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:AF23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -53805,9 +53813,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="14"/>
@@ -54021,7 +54029,7 @@
     <tableColumn id="18" xr3:uid="{18F2E440-9E4A-44BC-8E0B-4B79F9E22535}" name="siglaUnidade" dataDxfId="45"/>
     <tableColumn id="19" xr3:uid="{A180C5EF-79CE-40F4-8816-9FD0589DBFE1}" name="Preco" dataDxfId="44"/>
     <tableColumn id="20" xr3:uid="{C2CAD173-3150-4039-9F57-2778606908D0}" name="qtdRecEspFaixa" dataDxfId="43">
-      <calculatedColumnFormula>tbSilv[[#This Row],[qtdRecurso]]*tbSilv[[#This Row],[areaOcupacao]]/10000</calculatedColumnFormula>
+      <calculatedColumnFormula>tbSilv[[#This Row],[qtdRecurso]]*IF(tbSilv[[#This Row],[Produto]]="Mel",VLOOKUP(tbSilv[[#This Row],[Faixa]],tbFaixa[],3,0),tbSilv[[#This Row],[areaOcupacao]])/10000</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{62C569F1-C13A-4831-AFC3-F00D01CFB027}" name="ValorEspFaixa" dataDxfId="42">
       <calculatedColumnFormula>tbSilv[[#This Row],[qtdRecEspFaixa]]*tbSilv[[#This Row],[Preco]]</calculatedColumnFormula>
@@ -54145,11 +54153,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{30218212-5786-4CE3-9D48-57844C568F07}" name="tbFaixa" displayName="tbFaixa" ref="D1:E2" totalsRowShown="0">
-  <autoFilter ref="D1:E2" xr:uid="{30218212-5786-4CE3-9D48-57844C568F07}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{30218212-5786-4CE3-9D48-57844C568F07}" name="tbFaixa" displayName="tbFaixa" ref="D1:F2" totalsRowShown="0">
+  <autoFilter ref="D1:F2" xr:uid="{30218212-5786-4CE3-9D48-57844C568F07}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5225070F-A0F1-4CF3-A935-481024E497FD}" name="Faixa"/>
     <tableColumn id="2" xr3:uid="{6C69967F-8FA3-44ED-BD2A-E02C7A9899F0}" name="QtdFaixas"/>
+    <tableColumn id="3" xr3:uid="{B8AE2432-CB46-4CFA-BF32-6429D318C80B}" name="areaFaixa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -54581,10 +54590,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F50BB3C-41CB-4DEF-A3C1-020862B4D2ED}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54594,7 +54603,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -54607,11 +54616,14 @@
       <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>246</v>
       </c>
@@ -54624,11 +54636,14 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="G2" s="50">
+      <c r="F2">
+        <v>2500</v>
+      </c>
+      <c r="H2" s="50">
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
     </row>
   </sheetData>
@@ -57351,8 +57366,8 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57502,7 +57517,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="T2" s="6">
-        <f>tbSilv[[#This Row],[qtdRecurso]]*tbSilv[[#This Row],[areaOcupacao]]/10000</f>
+        <f>tbSilv[[#This Row],[qtdRecurso]]*IF(tbSilv[[#This Row],[Produto]]="Mel",VLOOKUP(tbSilv[[#This Row],[Faixa]],tbFaixa[],3,0),tbSilv[[#This Row],[areaOcupacao]])/10000</f>
         <v>4.8351600000000001</v>
       </c>
       <c r="U2" s="1">
@@ -57512,7 +57527,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -58875,8 +58890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF35BF8E-2710-4D4E-B34B-677E5C2E0561}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
+++ b/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Dropbox\SilvanaDocs\Atrium\RuralLegal_Portal\Serviços do Mauro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Atrium\rurallegal\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B17CDF-FDB8-4752-AB2D-08E515EB2329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B17232A-317B-4F5D-B1F2-22DBB37F0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" firstSheet="1" activeTab="9" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="782" firstSheet="1" activeTab="1" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicas de Uso" sheetId="10" r:id="rId1"/>
@@ -1833,157 +1833,13 @@
     <t>A – Considerando:</t>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A região do estado e o tipo de vegetação (fitofisionomia) onde está a propriedade para buscar no banco de dados quais as espécies estão adaptadas àquele local.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Onde o proprietário vai plantar dentro da sua propriedade, se na APP – Área de Preservação Permanente (exclusivamente no caso de imóveis com até 4 módulos fiscais), RL-Reserva Legal ou AUA-Área de Uso Alternativo. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A distribuição de plantio escolhida pelo usuário, isto é, quais as faixas que serão combinadas (descritas no item anterior).</t>
-    </r>
-  </si>
-  <si>
     <t>B – Ranqueamento das espécies</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>As espécies adaptadas são ranqueadas por um sistema multicritério que considera variáveis econômicas, ecológicas e de conservação para  o plantio nas faixas escolhidas. Os pesos do sistema multicritério são validados pelo comitê técnico- científico.</t>
-    </r>
   </si>
   <si>
     <t>C – Ranqueamento das combinações</t>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>As espécies, na ordem do ranking, são combinadas seguindo as regras de quantos indivíduos podem ser plantados por hectare. O ranking da combinação é calculado a partir da soma dos rankings das espécies ponderada pelo número de indivíduos de cada espécie na combinação.</t>
-    </r>
-  </si>
-  <si>
     <t>D – Seleção das melhores combinações</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">As combinações são ordenadas pela Taxa Interna de Retorno (TIR%) do fluxo de caixa produzido pela combinação de espécies, e as melhores combinações são apresentadas ao usuário, que seleciona a de sua preferência. </t>
-    </r>
   </si>
   <si>
     <t>7. FONTES DE DADOS</t>
@@ -2797,18 +2653,90 @@
   <si>
     <t>AreaOcupacaoIndividual</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A região do estado e o tipo de vegetação (fitofisionomia) onde está a propriedade para buscar no banco de dados quais as espécies estão adaptadas àquele local.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Onde o proprietário vai plantar dentro da sua propriedade, se na APP – Área de Preservação Permanente (exclusivamente no caso de imóveis com até 4 módulos fiscais), RL-Reserva Legal ou AUA-Área de Uso Alternativo. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A distribuição de plantio escolhida pelo usuário, isto é, quais as faixas que serão combinadas (descritas no item anterior).</t>
+    </r>
+  </si>
+  <si>
+    <t>As espécies adaptadas são ranqueadas por um sistema multicritério que considera variáveis econômicas, ecológicas e de conservação para  o plantio nas faixas escolhidas. Os pesos do sistema multicritério são validados pelo comitê técnico- científico.</t>
+  </si>
+  <si>
+    <t>As espécies, na ordem do ranking, são combinadas seguindo as regras de quantos indivíduos podem ser plantados por hectare. O ranking da combinação é calculado a partir da soma dos rankings das espécies ponderada pelo número de indivíduos de cada espécie na combinação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As combinações são ordenadas pela Taxa Interna de Retorno (TIR%) do fluxo de caixa produzido pela combinação de espécies, e as melhores combinações são apresentadas ao usuário, que seleciona a de sua preferência. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -3842,26 +3770,26 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3903,7 +3831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3946,8 +3874,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4089,6 +4017,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="22"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4176,152 +4241,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="22"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="12" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4332,118 +4257,10 @@
   </cellStyles>
   <dxfs count="68">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -4541,40 +4358,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4609,40 +4393,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4677,7 +4428,178 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4743,7 +4665,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4752,13 +4674,16 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4773,7 +4698,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4800,7 +4725,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5055,7 +4980,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <numFmt numFmtId="168" formatCode="0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5064,7 +4989,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+      <numFmt numFmtId="167" formatCode="#,##0.0000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5073,7 +4998,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+      <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -5339,7 +5264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6055,7 +5980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750736943"/>
@@ -6117,7 +6042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="750736527"/>
@@ -6159,7 +6084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6196,7 +6121,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7148,13 +7073,13 @@
     <cacheField name="siglaUnidade" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Preco" numFmtId="164">
+    <cacheField name="Preco" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.0999999999999999E-2" maxValue="273.079986572265"/>
     </cacheField>
-    <cacheField name="qtdRecEspFaixa" numFmtId="165">
+    <cacheField name="qtdRecEspFaixa" numFmtId="167">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.5500000000000003E-3" maxValue="42.673499999999997"/>
     </cacheField>
-    <cacheField name="ValorEspFaixa" numFmtId="166">
+    <cacheField name="ValorEspFaixa" numFmtId="168">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5646620000000001E-3" maxValue="425.952"/>
     </cacheField>
   </cacheFields>
@@ -54731,9 +54656,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="168" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="14"/>
@@ -54900,14 +54825,14 @@
     <dataField name="Sum of ValorEspFaixa" fld="20" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -55037,7 +54962,7 @@
     <tableColumn id="5" xr3:uid="{5198B0B0-16AB-4E0C-A7AF-746C61E2A7BF}" name="VTCustos" dataDxfId="19">
       <calculatedColumnFormula>SUMIFS(tbResumo[ValorEspFaixa],tbResumo[Faixa],tbFcFaixa[[#This Row],[Faixa]],tbResumo[Ano],tbFcFaixa[[#This Row],[ano]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{223E4A16-FBF0-4551-9B41-20351ACAC035}" name="VTLiquido" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="3">
+    <tableColumn id="6" xr3:uid="{223E4A16-FBF0-4551-9B41-20351ACAC035}" name="VTLiquido" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>tbFcFaixa[[#This Row],[VTReceitas]]-tbFcFaixa[[#This Row],[VTCustos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -55046,28 +54971,28 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}" name="tbDistribuicao" displayName="tbDistribuicao" ref="BU2:CB3" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}" name="tbDistribuicao" displayName="tbDistribuicao" ref="BU2:CB3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="BU2:CB3" xr:uid="{8579E6BB-FC18-4413-BA32-A3626F0BC757}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{97F0A431-E53A-4173-B7B6-4F327998E570}" name="Faixa" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{20805444-6442-4411-912E-85D698DAB74B}" name="Grupo" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{65663903-6B14-441D-83C6-2B6C59DB8D0E}" name="Especie" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{E5291598-5B87-4B9B-B2F0-7A1B65646F57}" name="NomeCientifico" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{DF6530C5-B271-4164-9526-8AD3E616095D}" name="NrArvores" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{C7040264-2B54-42C8-BB53-0F76F32BFAB8}" name="Entrelinhas" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{76F77445-708B-435B-B39E-FC6E149D612F}" name="EntrePlantas" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{7CE2798A-0B8D-4954-828E-5EC592355F10}" name="AreaOcupacaoIndividual" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{97F0A431-E53A-4173-B7B6-4F327998E570}" name="Faixa" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{20805444-6442-4411-912E-85D698DAB74B}" name="Grupo" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{65663903-6B14-441D-83C6-2B6C59DB8D0E}" name="Especie" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{E5291598-5B87-4B9B-B2F0-7A1B65646F57}" name="NomeCientifico" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{DF6530C5-B271-4164-9526-8AD3E616095D}" name="NrArvores" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{C7040264-2B54-42C8-BB53-0F76F32BFAB8}" name="Entrelinhas" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{76F77445-708B-435B-B39E-FC6E149D612F}" name="EntrePlantas" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{7CE2798A-0B8D-4954-828E-5EC592355F10}" name="AreaOcupacaoIndividual" dataDxfId="6" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}" name="tbUnid" displayName="tbUnid" ref="A1:B2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}" name="tbUnid" displayName="tbUnid" ref="A1:B2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:B2" xr:uid="{DAC085FB-F3AD-424F-8809-C741E0F91E87}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C44199EF-5CAF-41DE-AC50-9C8ADD924820}" name="Recurso" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{AF9227DF-33D6-480D-9CB7-FD60F7BC1811}" name="Unidade" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C44199EF-5CAF-41DE-AC50-9C8ADD924820}" name="Recurso" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AF9227DF-33D6-480D-9CB7-FD60F7BC1811}" name="Unidade" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -56627,8 +56552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C81870-465F-4704-9664-FBDB9B54C268}">
   <dimension ref="A2:G239"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56644,7 +56569,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="142" t="s">
         <v>109</v>
       </c>
     </row>
@@ -56668,57 +56593,57 @@
       <c r="B7" s="55"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="129" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="129" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="129" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="129" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="129" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="129" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="132" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="132" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="132" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="132" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="142" t="s">
         <v>110</v>
       </c>
     </row>
@@ -56726,101 +56651,101 @@
       <c r="B20" s="53"/>
     </row>
     <row r="21" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="130" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="159"/>
+      <c r="B22" s="130"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="130" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="130" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="130" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="159" t="s">
+      <c r="B27" s="130" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="130" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="159" t="s">
+      <c r="B29" s="130" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="130" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="159"/>
+      <c r="B31" s="130"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="159"/>
+      <c r="B32" s="130"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="159"/>
+      <c r="B33" s="130"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="159"/>
+      <c r="B34" s="130"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="159"/>
+      <c r="B35" s="130"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="159"/>
+      <c r="B36" s="130"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="159"/>
+      <c r="B37" s="130"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="159"/>
+      <c r="B38" s="130"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="159"/>
+      <c r="B39" s="130"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="159"/>
+      <c r="B40" s="130"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="159"/>
+      <c r="B41" s="130"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="159"/>
+      <c r="B42" s="130"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="159"/>
+      <c r="B43" s="130"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="159"/>
+      <c r="B44" s="130"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="159"/>
+      <c r="B45" s="130"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="159"/>
+      <c r="B46" s="130"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="159"/>
+      <c r="B47" s="130"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="162" t="s">
+      <c r="B48" s="133" t="s">
         <v>195</v>
       </c>
     </row>
@@ -56828,7 +56753,7 @@
       <c r="B49" s="56"/>
     </row>
     <row r="50" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="142" t="s">
         <v>111</v>
       </c>
     </row>
@@ -56836,63 +56761,63 @@
       <c r="B51" s="53"/>
     </row>
     <row r="52" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="159" t="s">
+      <c r="B52" s="130" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="159"/>
+      <c r="B53" s="130"/>
     </row>
     <row r="54" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="159" t="s">
+      <c r="B54" s="130" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="159"/>
+      <c r="B55" s="130"/>
     </row>
     <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="134" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="159"/>
+      <c r="B57" s="130"/>
     </row>
     <row r="58" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="159" t="s">
+      <c r="B58" s="130" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="159"/>
+      <c r="B59" s="130"/>
     </row>
     <row r="60" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="134" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="159"/>
+      <c r="B61" s="130"/>
     </row>
     <row r="62" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B62" s="164" t="s">
+      <c r="B62" s="135" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="164"/>
+      <c r="B63" s="135"/>
     </row>
     <row r="64" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B64" s="164" t="s">
+      <c r="B64" s="135" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="159"/>
+      <c r="B65" s="130"/>
     </row>
     <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="176" t="s">
+      <c r="B66" s="142" t="s">
         <v>203</v>
       </c>
     </row>
@@ -56901,244 +56826,244 @@
     </row>
     <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="72"/>
-      <c r="B68" s="163" t="s">
+      <c r="B68" s="134" t="s">
         <v>204</v>
       </c>
       <c r="C68" s="73"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="72"/>
-      <c r="B69" s="170"/>
+      <c r="B69" s="136"/>
       <c r="C69" s="73"/>
     </row>
     <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="72"/>
-      <c r="B70" s="159" t="s">
+      <c r="B70" s="130" t="s">
         <v>205</v>
       </c>
       <c r="C70" s="73"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="72"/>
-      <c r="B71" s="159" t="s">
+      <c r="B71" s="130" t="s">
         <v>206</v>
       </c>
       <c r="C71" s="73"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="72"/>
-      <c r="B72" s="165"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="73"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="72"/>
-      <c r="B73" s="165"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="73"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="72"/>
-      <c r="B74" s="165"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="73"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="72"/>
-      <c r="B75" s="165"/>
+      <c r="B75" s="136"/>
       <c r="C75" s="73"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="72"/>
-      <c r="B76" s="165"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="73"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="72"/>
-      <c r="B77" s="165"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="73"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="72"/>
-      <c r="B78" s="165"/>
+      <c r="B78" s="136"/>
       <c r="C78" s="73"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="72"/>
-      <c r="B79" s="165"/>
+      <c r="B79" s="136"/>
       <c r="C79" s="73"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="72"/>
-      <c r="B80" s="165"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="73"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="72"/>
-      <c r="B81" s="165"/>
+      <c r="B81" s="136"/>
       <c r="C81" s="73"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="72"/>
-      <c r="B82" s="165"/>
+      <c r="B82" s="136"/>
       <c r="C82" s="73"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="72"/>
-      <c r="B83" s="165"/>
+      <c r="B83" s="136"/>
       <c r="C83" s="73"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="72"/>
-      <c r="B84" s="165"/>
+      <c r="B84" s="136"/>
       <c r="C84" s="73"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="72"/>
-      <c r="B85" s="165"/>
+      <c r="B85" s="136"/>
       <c r="C85" s="73"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="72"/>
-      <c r="B86" s="165"/>
+      <c r="B86" s="136"/>
       <c r="C86" s="73"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="72"/>
-      <c r="B87" s="165"/>
+      <c r="B87" s="136"/>
       <c r="C87" s="73"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="72"/>
-      <c r="B88" s="165"/>
+      <c r="B88" s="136"/>
       <c r="C88" s="73"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="72"/>
-      <c r="B89" s="162" t="s">
+      <c r="B89" s="133" t="s">
         <v>207</v>
       </c>
       <c r="C89" s="73"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="72"/>
-      <c r="B90" s="162" t="s">
+      <c r="B90" s="133" t="s">
         <v>208</v>
       </c>
       <c r="C90" s="73"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="72"/>
-      <c r="B91" s="165"/>
+      <c r="B91" s="136"/>
       <c r="C91" s="73"/>
     </row>
     <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="72"/>
-      <c r="B92" s="176" t="s">
+      <c r="B92" s="142" t="s">
         <v>209</v>
       </c>
       <c r="C92" s="73"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="72"/>
-      <c r="B93" s="165"/>
+      <c r="B93" s="136"/>
       <c r="C93" s="73"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="72"/>
-      <c r="B94" s="159" t="s">
+      <c r="B94" s="130" t="s">
         <v>210</v>
       </c>
       <c r="C94" s="73"/>
     </row>
     <row r="95" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="72"/>
-      <c r="B95" s="174" t="s">
+      <c r="B95" s="141" t="s">
         <v>211</v>
       </c>
       <c r="C95" s="73"/>
     </row>
     <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="72"/>
-      <c r="B96" s="175" t="s">
-        <v>212</v>
+      <c r="B96" s="205" t="s">
+        <v>317</v>
       </c>
       <c r="C96" s="73"/>
     </row>
     <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="72"/>
-      <c r="B97" s="175" t="s">
-        <v>213</v>
+      <c r="B97" s="205" t="s">
+        <v>318</v>
       </c>
       <c r="C97" s="73"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="72"/>
-      <c r="B98" s="175" t="s">
-        <v>214</v>
+      <c r="B98" s="205" t="s">
+        <v>319</v>
       </c>
       <c r="C98" s="73"/>
     </row>
     <row r="99" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="72"/>
-      <c r="B99" s="174" t="s">
-        <v>215</v>
+      <c r="B99" s="141" t="s">
+        <v>212</v>
       </c>
       <c r="C99" s="73"/>
     </row>
     <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="72"/>
-      <c r="B100" s="175" t="s">
-        <v>216</v>
+      <c r="B100" s="206" t="s">
+        <v>320</v>
       </c>
       <c r="C100" s="73"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="72"/>
-      <c r="B101" s="174" t="s">
-        <v>217</v>
+      <c r="B101" s="141" t="s">
+        <v>213</v>
       </c>
       <c r="C101" s="73"/>
     </row>
     <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="72"/>
-      <c r="B102" s="175" t="s">
-        <v>218</v>
+      <c r="B102" s="206" t="s">
+        <v>321</v>
       </c>
       <c r="C102" s="73"/>
     </row>
     <row r="103" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="72"/>
-      <c r="B103" s="174" t="s">
-        <v>219</v>
+      <c r="B103" s="141" t="s">
+        <v>214</v>
       </c>
       <c r="C103" s="73"/>
     </row>
     <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="72"/>
-      <c r="B104" s="175" t="s">
-        <v>220</v>
+      <c r="B104" s="206" t="s">
+        <v>322</v>
       </c>
       <c r="C104" s="73"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="72"/>
-      <c r="B105" s="165"/>
+      <c r="B105" s="136"/>
       <c r="C105" s="73"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="72"/>
-      <c r="B106" s="165"/>
+      <c r="B106" s="136"/>
       <c r="C106" s="73"/>
     </row>
     <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="72"/>
-      <c r="B107" s="176" t="s">
-        <v>222</v>
+      <c r="B107" s="142" t="s">
+        <v>216</v>
       </c>
       <c r="C107" s="73"/>
     </row>
-    <row r="108" spans="1:3" s="169" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="166"/>
-      <c r="B108" s="167"/>
-      <c r="C108" s="168"/>
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="72"/>
+      <c r="B108" s="137"/>
+      <c r="C108" s="73"/>
     </row>
     <row r="109" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="72"/>
@@ -57330,8 +57255,8 @@
       <c r="C135" s="73"/>
     </row>
     <row r="136" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="176" t="s">
-        <v>221</v>
+      <c r="B136" s="142" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -57339,63 +57264,63 @@
     </row>
     <row r="138" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="59"/>
     </row>
     <row r="140" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="159" t="s">
-        <v>224</v>
+      <c r="B140" s="130" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="178" t="s">
-        <v>225</v>
+      <c r="B141" s="144" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="178" t="s">
-        <v>226</v>
+      <c r="B142" s="144" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="159"/>
+      <c r="B143" s="130"/>
     </row>
     <row r="144" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="159" t="s">
-        <v>227</v>
+      <c r="B144" s="130" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="159" t="s">
-        <v>228</v>
+      <c r="B145" s="130" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="146" spans="2:2" s="179" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="172" t="s">
-        <v>229</v>
+    <row r="146" spans="2:2" s="145" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="139" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="147" spans="2:2" s="180" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="160" t="s">
-        <v>230</v>
+    <row r="147" spans="2:2" s="146" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="131" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="148" spans="2:2" s="179" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="172" t="s">
-        <v>231</v>
+    <row r="148" spans="2:2" s="145" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="139" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="149" spans="2:2" s="180" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="182" t="s">
-        <v>232</v>
+    <row r="149" spans="2:2" s="146" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="148" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="150" spans="2:2" s="180" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="182" t="s">
-        <v>233</v>
+    <row r="150" spans="2:2" s="146" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="148" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -57403,400 +57328,400 @@
     </row>
     <row r="152" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="61" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="58"/>
     </row>
     <row r="154" spans="2:2" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="159" t="s">
-        <v>234</v>
+      <c r="B154" s="130" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="159" t="s">
-        <v>235</v>
+      <c r="B155" s="130" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="156" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="183" t="s">
-        <v>241</v>
+      <c r="B156" s="149" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="159" t="s">
-        <v>236</v>
+      <c r="B157" s="130" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="159" t="s">
+      <c r="B158" s="130" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="184" t="s">
-        <v>237</v>
+      <c r="B159" s="150" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="184" t="s">
-        <v>238</v>
+      <c r="B160" s="150" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B161" s="184" t="s">
-        <v>239</v>
+      <c r="B161" s="150" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B162" s="184" t="s">
-        <v>240</v>
+      <c r="B162" s="150" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="164" t="s">
+      <c r="B163" s="135" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="164" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="159" t="s">
+      <c r="B164" s="130" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="183" t="s">
-        <v>242</v>
+      <c r="B165" s="149" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="2:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="159" t="s">
-        <v>243</v>
+      <c r="B166" s="130" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="183" t="s">
-        <v>244</v>
+      <c r="B167" s="149" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="159" t="s">
-        <v>245</v>
+      <c r="B168" s="130" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="159" t="s">
-        <v>246</v>
+      <c r="B169" s="130" t="s">
+        <v>240</v>
       </c>
       <c r="D169" s="52" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="159" t="s">
-        <v>319</v>
-      </c>
-      <c r="D170" s="190" t="s">
+      <c r="B170" s="130" t="s">
+        <v>313</v>
+      </c>
+      <c r="D170" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="E170" s="191" t="s">
-        <v>303</v>
-      </c>
-      <c r="F170" s="191" t="s">
+      <c r="E170" s="157" t="s">
+        <v>297</v>
+      </c>
+      <c r="F170" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="G170" s="192" t="s">
+      <c r="G170" s="158" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="159"/>
-      <c r="D171" s="193" t="s">
+      <c r="B171" s="130"/>
+      <c r="D171" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="E171" s="194" t="s">
-        <v>304</v>
-      </c>
-      <c r="F171" s="195" t="s">
-        <v>305</v>
-      </c>
-      <c r="G171" s="196" t="s">
-        <v>306</v>
+      <c r="E171" s="160" t="s">
+        <v>298</v>
+      </c>
+      <c r="F171" s="161" t="s">
+        <v>299</v>
+      </c>
+      <c r="G171" s="162" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B172" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="D172" s="197" t="s">
+        <v>243</v>
+      </c>
+      <c r="D172" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="E172" s="198" t="s">
-        <v>307</v>
-      </c>
-      <c r="F172" s="199" t="s">
-        <v>308</v>
-      </c>
-      <c r="G172" s="200" t="s">
-        <v>309</v>
+      <c r="E172" s="170" t="s">
+        <v>301</v>
+      </c>
+      <c r="F172" s="172" t="s">
+        <v>302</v>
+      </c>
+      <c r="G172" s="174" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="159"/>
-      <c r="D173" s="201" t="s">
+      <c r="B173" s="130"/>
+      <c r="D173" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="E173" s="202"/>
-      <c r="F173" s="203"/>
-      <c r="G173" s="204"/>
+      <c r="E173" s="171"/>
+      <c r="F173" s="173"/>
+      <c r="G173" s="175"/>
     </row>
     <row r="174" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="183" t="s">
-        <v>250</v>
-      </c>
-      <c r="D174" s="193" t="s">
-        <v>310</v>
-      </c>
-      <c r="E174" s="194" t="s">
-        <v>311</v>
-      </c>
-      <c r="F174" s="195" t="s">
-        <v>312</v>
-      </c>
-      <c r="G174" s="196" t="s">
-        <v>313</v>
+      <c r="B174" s="149" t="s">
+        <v>244</v>
+      </c>
+      <c r="D174" s="159" t="s">
+        <v>304</v>
+      </c>
+      <c r="E174" s="160" t="s">
+        <v>305</v>
+      </c>
+      <c r="F174" s="161" t="s">
+        <v>306</v>
+      </c>
+      <c r="G174" s="162" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="159"/>
-      <c r="D175" s="201" t="s">
+      <c r="B175" s="130"/>
+      <c r="D175" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="E175" s="205" t="s">
-        <v>314</v>
-      </c>
-      <c r="F175" s="206" t="s">
-        <v>315</v>
-      </c>
-      <c r="G175" s="207" t="s">
-        <v>316</v>
+      <c r="E175" s="165" t="s">
+        <v>308</v>
+      </c>
+      <c r="F175" s="166" t="s">
+        <v>309</v>
+      </c>
+      <c r="G175" s="167" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="185" t="s">
-        <v>251</v>
-      </c>
-      <c r="D176" s="193" t="s">
+      <c r="B176" s="151" t="s">
+        <v>245</v>
+      </c>
+      <c r="D176" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="E176" s="194" t="s">
-        <v>317</v>
-      </c>
-      <c r="F176" s="208">
+      <c r="E176" s="160" t="s">
+        <v>311</v>
+      </c>
+      <c r="F176" s="168">
         <v>44866</v>
       </c>
-      <c r="G176" s="196" t="s">
-        <v>318</v>
+      <c r="G176" s="162" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B177" s="159" t="s">
-        <v>252</v>
+      <c r="B177" s="130" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="181" t="s">
-        <v>261</v>
+      <c r="B178" s="147" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="181" t="s">
-        <v>256</v>
+      <c r="B179" s="147" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="181" t="s">
-        <v>257</v>
+      <c r="B180" s="147" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="181" t="s">
-        <v>258</v>
+      <c r="B181" s="147" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="159" t="s">
-        <v>253</v>
+      <c r="B182" s="130" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="159" t="s">
-        <v>254</v>
+      <c r="B183" s="130" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="187" t="s">
-        <v>259</v>
+      <c r="B184" s="153" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="187" t="s">
-        <v>260</v>
+      <c r="B185" s="153" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="159" t="s">
-        <v>255</v>
+      <c r="B186" s="130" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="59"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="185" t="s">
-        <v>262</v>
+      <c r="B188" s="151" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="159" t="s">
-        <v>263</v>
+      <c r="B189" s="130" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="173" t="s">
-        <v>264</v>
+      <c r="B190" s="140" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="173" t="s">
-        <v>265</v>
+      <c r="B191" s="140" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="173" t="s">
-        <v>266</v>
+      <c r="B192" s="140" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="173" t="s">
-        <v>267</v>
+      <c r="B193" s="140" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B194" s="159" t="s">
-        <v>268</v>
+      <c r="B194" s="130" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="159" t="s">
-        <v>269</v>
+      <c r="B195" s="130" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="59"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="185" t="s">
-        <v>270</v>
+      <c r="B197" s="151" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="198" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B198" s="159" t="s">
-        <v>271</v>
+      <c r="B198" s="130" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="159"/>
+      <c r="B199" s="130"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="185" t="s">
-        <v>272</v>
+      <c r="B200" s="151" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B201" s="60" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="177" t="s">
-        <v>273</v>
+      <c r="B202" s="143" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="59"/>
     </row>
     <row r="204" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B204" s="183" t="s">
-        <v>275</v>
+      <c r="B204" s="149" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="185" t="s">
-        <v>276</v>
+      <c r="B205" s="151" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="159" t="s">
-        <v>277</v>
+      <c r="B206" s="130" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="186" t="s">
-        <v>278</v>
+      <c r="B207" s="152" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="186" t="s">
-        <v>279</v>
+      <c r="B208" s="152" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="186" t="s">
-        <v>280</v>
+      <c r="B209" s="152" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="186" t="s">
-        <v>281</v>
+      <c r="B210" s="152" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="159" t="s">
-        <v>282</v>
+      <c r="B211" s="130" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="159" t="s">
-        <v>283</v>
+      <c r="B212" s="130" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B213" s="159" t="s">
-        <v>284</v>
+      <c r="B213" s="130" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="188"/>
+      <c r="B214" s="154"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="185" t="s">
-        <v>285</v>
+      <c r="B215" s="151" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="189" t="s">
-        <v>287</v>
+      <c r="B217" s="155" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="159" t="s">
-        <v>288</v>
+      <c r="B218" s="130" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
@@ -57804,25 +57729,25 @@
     </row>
     <row r="220" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B220" s="61" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="59"/>
     </row>
     <row r="222" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B222" s="159" t="s">
-        <v>290</v>
+      <c r="B222" s="130" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="171" t="s">
-        <v>291</v>
+      <c r="B223" s="138" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="224" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B224" s="159" t="s">
-        <v>292</v>
+      <c r="B224" s="130" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
@@ -57830,61 +57755,61 @@
     </row>
     <row r="226" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B226" s="61" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="59"/>
     </row>
     <row r="228" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B228" s="183" t="s">
-        <v>294</v>
+      <c r="B228" s="149" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="159" t="s">
-        <v>297</v>
+      <c r="B229" s="130" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="177" t="s">
-        <v>298</v>
+      <c r="B230" s="143" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="59"/>
     </row>
     <row r="232" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B232" s="183" t="s">
-        <v>295</v>
+      <c r="B232" s="149" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="159" t="s">
-        <v>299</v>
+      <c r="B233" s="130" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="177" t="s">
-        <v>300</v>
+      <c r="B234" s="143" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="59"/>
     </row>
     <row r="236" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B236" s="183" t="s">
-        <v>296</v>
+      <c r="B236" s="149" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="237" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B237" s="159" t="s">
-        <v>301</v>
+      <c r="B237" s="130" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" s="177" t="s">
-        <v>302</v>
+      <c r="B238" s="143" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
@@ -57993,32 +57918,32 @@
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="178"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
       <c r="B9" s="91"/>
       <c r="C9" s="91"/>
       <c r="D9" s="91"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="178"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="131"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="178"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="100"/>
@@ -58033,24 +57958,24 @@
     <row r="12" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104"/>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="134"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
     </row>
     <row r="14" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="132"/>
+      <c r="C16" s="179"/>
       <c r="D16" s="95" t="s">
         <v>71</v>
       </c>
@@ -58101,11 +58026,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="97"/>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
       <c r="E20" s="93" t="s">
         <v>102</v>
       </c>
@@ -58115,11 +58040,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="97"/>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
       <c r="E21" s="93" t="s">
         <v>1</v>
       </c>
@@ -58129,11 +58054,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="97"/>
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="93" t="s">
         <v>2</v>
       </c>
@@ -60079,10 +60004,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="135" t="s">
+      <c r="K8" s="182" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="136"/>
+      <c r="L8" s="183"/>
       <c r="M8" s="32">
         <v>7.8899999999999998E-2</v>
       </c>
@@ -60989,7 +60914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10EA992-D83A-4210-ACEC-3D751E1F72C2}">
   <dimension ref="B1:CZ46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="CB2" sqref="CB2"/>
     </sheetView>
   </sheetViews>
@@ -61010,84 +60935,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:104" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="198" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="152"/>
-      <c r="Y1" s="152"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="152"/>
-      <c r="AD1" s="152"/>
-      <c r="AE1" s="152"/>
-      <c r="AF1" s="152"/>
-      <c r="AG1" s="152"/>
-      <c r="AH1" s="152"/>
-      <c r="AI1" s="152"/>
-      <c r="AJ1" s="153"/>
-      <c r="AN1" s="137" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="199"/>
+      <c r="AG1" s="199"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="199"/>
+      <c r="AJ1" s="200"/>
+      <c r="AN1" s="184" t="s">
         <v>174</v>
       </c>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="138"/>
-      <c r="AY1" s="138"/>
-      <c r="AZ1" s="138"/>
-      <c r="BA1" s="138"/>
-      <c r="BB1" s="138"/>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="138"/>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="138"/>
-      <c r="BK1" s="138"/>
-      <c r="BL1" s="138"/>
-      <c r="BM1" s="138"/>
-      <c r="BN1" s="138"/>
-      <c r="BO1" s="138"/>
-      <c r="BP1" s="138"/>
-      <c r="BQ1" s="138"/>
-      <c r="BR1" s="138"/>
-      <c r="BS1" s="139"/>
-      <c r="BU1" s="140" t="s">
+      <c r="AO1" s="185"/>
+      <c r="AP1" s="185"/>
+      <c r="AQ1" s="185"/>
+      <c r="AR1" s="185"/>
+      <c r="AS1" s="185"/>
+      <c r="AT1" s="185"/>
+      <c r="AU1" s="185"/>
+      <c r="AV1" s="185"/>
+      <c r="AW1" s="185"/>
+      <c r="AX1" s="185"/>
+      <c r="AY1" s="185"/>
+      <c r="AZ1" s="185"/>
+      <c r="BA1" s="185"/>
+      <c r="BB1" s="185"/>
+      <c r="BC1" s="185"/>
+      <c r="BD1" s="185"/>
+      <c r="BE1" s="185"/>
+      <c r="BF1" s="185"/>
+      <c r="BG1" s="185"/>
+      <c r="BH1" s="185"/>
+      <c r="BI1" s="185"/>
+      <c r="BJ1" s="185"/>
+      <c r="BK1" s="185"/>
+      <c r="BL1" s="185"/>
+      <c r="BM1" s="185"/>
+      <c r="BN1" s="185"/>
+      <c r="BO1" s="185"/>
+      <c r="BP1" s="185"/>
+      <c r="BQ1" s="185"/>
+      <c r="BR1" s="185"/>
+      <c r="BS1" s="186"/>
+      <c r="BU1" s="187" t="s">
         <v>175</v>
       </c>
-      <c r="BV1" s="141"/>
-      <c r="BW1" s="141"/>
-      <c r="BX1" s="141"/>
-      <c r="BY1" s="141"/>
+      <c r="BV1" s="188"/>
+      <c r="BW1" s="188"/>
+      <c r="BX1" s="188"/>
+      <c r="BY1" s="188"/>
       <c r="BZ1" s="89"/>
       <c r="CA1" s="89"/>
       <c r="CB1" s="89"/>
@@ -61117,41 +61042,41 @@
       <c r="CZ1" s="90"/>
     </row>
     <row r="2" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="156"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="202"/>
+      <c r="AE2" s="202"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="202"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="203"/>
       <c r="AN2" s="80" t="s">
         <v>113</v>
       </c>
@@ -61205,14 +61130,14 @@
       <c r="BY2" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="BZ2" s="209" t="s">
-        <v>320</v>
-      </c>
-      <c r="CA2" s="209" t="s">
-        <v>321</v>
-      </c>
-      <c r="CB2" s="209" t="s">
-        <v>322</v>
+      <c r="BZ2" s="169" t="s">
+        <v>314</v>
+      </c>
+      <c r="CA2" s="169" t="s">
+        <v>315</v>
+      </c>
+      <c r="CB2" s="169" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="2:104" x14ac:dyDescent="0.3">
@@ -61306,43 +61231,43 @@
       <c r="CB3" s="65"/>
     </row>
     <row r="4" spans="2:104" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="143"/>
-      <c r="AD4" s="143"/>
-      <c r="AE4" s="143"/>
-      <c r="AF4" s="143"/>
-      <c r="AG4" s="143"/>
-      <c r="AH4" s="143"/>
-      <c r="AI4" s="143"/>
-      <c r="AJ4" s="144"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="190"/>
+      <c r="O4" s="190"/>
+      <c r="P4" s="190"/>
+      <c r="Q4" s="190"/>
+      <c r="R4" s="190"/>
+      <c r="S4" s="190"/>
+      <c r="T4" s="190"/>
+      <c r="U4" s="190"/>
+      <c r="V4" s="190"/>
+      <c r="W4" s="190"/>
+      <c r="X4" s="190"/>
+      <c r="Y4" s="190"/>
+      <c r="Z4" s="190"/>
+      <c r="AA4" s="190"/>
+      <c r="AB4" s="190"/>
+      <c r="AC4" s="190"/>
+      <c r="AD4" s="190"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="190"/>
+      <c r="AG4" s="190"/>
+      <c r="AH4" s="190"/>
+      <c r="AI4" s="190"/>
+      <c r="AJ4" s="191"/>
       <c r="AN4" s="84" t="s">
         <v>118</v>
       </c>
@@ -61383,41 +61308,41 @@
       <c r="BS4" s="83"/>
     </row>
     <row r="5" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="146"/>
-      <c r="AJ5" s="147"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="193"/>
+      <c r="T5" s="193"/>
+      <c r="U5" s="193"/>
+      <c r="V5" s="193"/>
+      <c r="W5" s="193"/>
+      <c r="X5" s="193"/>
+      <c r="Y5" s="193"/>
+      <c r="Z5" s="193"/>
+      <c r="AA5" s="193"/>
+      <c r="AB5" s="193"/>
+      <c r="AC5" s="193"/>
+      <c r="AD5" s="193"/>
+      <c r="AE5" s="193"/>
+      <c r="AF5" s="193"/>
+      <c r="AG5" s="193"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="194"/>
       <c r="AN5" s="85" t="s">
         <v>122</v>
       </c>
@@ -61458,157 +61383,157 @@
       <c r="BS5" s="88"/>
     </row>
     <row r="6" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B6" s="145"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="146"/>
-      <c r="AJ6" s="147"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="193"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193"/>
+      <c r="AJ6" s="194"/>
       <c r="AM6" s="64"/>
       <c r="BS6"/>
     </row>
     <row r="7" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B7" s="145"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="146"/>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="146"/>
-      <c r="AJ7" s="147"/>
-      <c r="AN7" s="157" t="s">
+      <c r="B7" s="192"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="193"/>
+      <c r="AF7" s="193"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="193"/>
+      <c r="AJ7" s="194"/>
+      <c r="AN7" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="157"/>
-      <c r="AQ7" s="157"/>
-      <c r="AR7" s="157"/>
-      <c r="AS7" s="157"/>
-      <c r="AT7" s="157"/>
-      <c r="AU7" s="157"/>
-      <c r="AV7" s="157" t="s">
+      <c r="AO7" s="204"/>
+      <c r="AP7" s="204"/>
+      <c r="AQ7" s="204"/>
+      <c r="AR7" s="204"/>
+      <c r="AS7" s="204"/>
+      <c r="AT7" s="204"/>
+      <c r="AU7" s="204"/>
+      <c r="AV7" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="AW7" s="157"/>
-      <c r="AX7" s="157"/>
-      <c r="AY7" s="157"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="157"/>
-      <c r="BB7" s="157"/>
-      <c r="BC7" s="157"/>
-      <c r="BD7" s="157" t="s">
+      <c r="AW7" s="204"/>
+      <c r="AX7" s="204"/>
+      <c r="AY7" s="204"/>
+      <c r="AZ7" s="204"/>
+      <c r="BA7" s="204"/>
+      <c r="BB7" s="204"/>
+      <c r="BC7" s="204"/>
+      <c r="BD7" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="BE7" s="157"/>
-      <c r="BF7" s="157"/>
-      <c r="BG7" s="157"/>
-      <c r="BH7" s="157"/>
-      <c r="BI7" s="157"/>
-      <c r="BJ7" s="157"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="157" t="s">
+      <c r="BE7" s="204"/>
+      <c r="BF7" s="204"/>
+      <c r="BG7" s="204"/>
+      <c r="BH7" s="204"/>
+      <c r="BI7" s="204"/>
+      <c r="BJ7" s="204"/>
+      <c r="BK7" s="204"/>
+      <c r="BL7" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="BM7" s="157"/>
-      <c r="BN7" s="157"/>
-      <c r="BO7" s="157"/>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="157"/>
-      <c r="BS7" s="157"/>
+      <c r="BM7" s="204"/>
+      <c r="BN7" s="204"/>
+      <c r="BO7" s="204"/>
+      <c r="BP7" s="204"/>
+      <c r="BQ7" s="204"/>
+      <c r="BR7" s="204"/>
+      <c r="BS7" s="204"/>
     </row>
     <row r="8" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="146"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="146"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="146"/>
-      <c r="AE8" s="146"/>
-      <c r="AF8" s="146"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="146"/>
-      <c r="AJ8" s="147"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="193"/>
+      <c r="I8" s="193"/>
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193"/>
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193"/>
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193"/>
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193"/>
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="193"/>
+      <c r="AF8" s="193"/>
+      <c r="AG8" s="193"/>
+      <c r="AH8" s="193"/>
+      <c r="AI8" s="193"/>
+      <c r="AJ8" s="194"/>
       <c r="AN8" s="105">
         <v>1</v>
       </c>
@@ -61707,78 +61632,78 @@
       </c>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="146"/>
-      <c r="AF9" s="146"/>
-      <c r="AG9" s="146"/>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="146"/>
-      <c r="AJ9" s="147"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="193"/>
+      <c r="AG9" s="193"/>
+      <c r="AH9" s="193"/>
+      <c r="AI9" s="193"/>
+      <c r="AJ9" s="194"/>
     </row>
     <row r="10" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="146"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="146"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="146"/>
-      <c r="AF10" s="146"/>
-      <c r="AG10" s="146"/>
-      <c r="AH10" s="146"/>
-      <c r="AI10" s="146"/>
-      <c r="AJ10" s="147"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="193"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="193"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="193"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="193"/>
+      <c r="AH10" s="193"/>
+      <c r="AI10" s="193"/>
+      <c r="AJ10" s="194"/>
       <c r="AL10" s="126">
         <v>1</v>
       </c>
@@ -61880,41 +61805,41 @@
       </c>
     </row>
     <row r="11" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="146"/>
-      <c r="AF11" s="146"/>
-      <c r="AG11" s="146"/>
-      <c r="AH11" s="146"/>
-      <c r="AI11" s="146"/>
-      <c r="AJ11" s="147"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
+      <c r="M11" s="193"/>
+      <c r="N11" s="193"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="193"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="193"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="193"/>
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193"/>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="193"/>
+      <c r="AD11" s="193"/>
+      <c r="AE11" s="193"/>
+      <c r="AF11" s="193"/>
+      <c r="AG11" s="193"/>
+      <c r="AH11" s="193"/>
+      <c r="AI11" s="193"/>
+      <c r="AJ11" s="194"/>
       <c r="AL11" s="127">
         <v>2</v>
       </c>
@@ -62016,41 +61941,41 @@
       </c>
     </row>
     <row r="12" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="146"/>
-      <c r="AF12" s="146"/>
-      <c r="AG12" s="146"/>
-      <c r="AH12" s="146"/>
-      <c r="AI12" s="146"/>
-      <c r="AJ12" s="147"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="193"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="193"/>
+      <c r="V12" s="193"/>
+      <c r="W12" s="193"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="193"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="193"/>
+      <c r="AG12" s="193"/>
+      <c r="AH12" s="193"/>
+      <c r="AI12" s="193"/>
+      <c r="AJ12" s="194"/>
       <c r="AL12" s="127">
         <v>3</v>
       </c>
@@ -62152,41 +62077,41 @@
       </c>
     </row>
     <row r="13" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
-      <c r="AF13" s="146"/>
-      <c r="AG13" s="146"/>
-      <c r="AH13" s="146"/>
-      <c r="AI13" s="146"/>
-      <c r="AJ13" s="147"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="193"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="193"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="193"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="193"/>
+      <c r="AH13" s="193"/>
+      <c r="AI13" s="193"/>
+      <c r="AJ13" s="194"/>
       <c r="AL13" s="127">
         <v>4</v>
       </c>
@@ -62288,41 +62213,41 @@
       </c>
     </row>
     <row r="14" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="146"/>
-      <c r="AF14" s="146"/>
-      <c r="AG14" s="146"/>
-      <c r="AH14" s="146"/>
-      <c r="AI14" s="146"/>
-      <c r="AJ14" s="147"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="193"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="193"/>
+      <c r="AH14" s="193"/>
+      <c r="AI14" s="193"/>
+      <c r="AJ14" s="194"/>
       <c r="AL14" s="127">
         <v>5</v>
       </c>
@@ -62424,41 +62349,41 @@
       </c>
     </row>
     <row r="15" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B15" s="145"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="146"/>
-      <c r="T15" s="146"/>
-      <c r="U15" s="146"/>
-      <c r="V15" s="146"/>
-      <c r="W15" s="146"/>
-      <c r="X15" s="146"/>
-      <c r="Y15" s="146"/>
-      <c r="Z15" s="146"/>
-      <c r="AA15" s="146"/>
-      <c r="AB15" s="146"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="146"/>
-      <c r="AE15" s="146"/>
-      <c r="AF15" s="146"/>
-      <c r="AG15" s="146"/>
-      <c r="AH15" s="146"/>
-      <c r="AI15" s="146"/>
-      <c r="AJ15" s="147"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="193"/>
+      <c r="S15" s="193"/>
+      <c r="T15" s="193"/>
+      <c r="U15" s="193"/>
+      <c r="V15" s="193"/>
+      <c r="W15" s="193"/>
+      <c r="X15" s="193"/>
+      <c r="Y15" s="193"/>
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="193"/>
+      <c r="AB15" s="193"/>
+      <c r="AC15" s="193"/>
+      <c r="AD15" s="193"/>
+      <c r="AE15" s="193"/>
+      <c r="AF15" s="193"/>
+      <c r="AG15" s="193"/>
+      <c r="AH15" s="193"/>
+      <c r="AI15" s="193"/>
+      <c r="AJ15" s="194"/>
       <c r="AL15" s="127">
         <v>6</v>
       </c>
@@ -62560,41 +62485,41 @@
       </c>
     </row>
     <row r="16" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="146"/>
-      <c r="T16" s="146"/>
-      <c r="U16" s="146"/>
-      <c r="V16" s="146"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="146"/>
-      <c r="Y16" s="146"/>
-      <c r="Z16" s="146"/>
-      <c r="AA16" s="146"/>
-      <c r="AB16" s="146"/>
-      <c r="AC16" s="146"/>
-      <c r="AD16" s="146"/>
-      <c r="AE16" s="146"/>
-      <c r="AF16" s="146"/>
-      <c r="AG16" s="146"/>
-      <c r="AH16" s="146"/>
-      <c r="AI16" s="146"/>
-      <c r="AJ16" s="147"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
+      <c r="Z16" s="193"/>
+      <c r="AA16" s="193"/>
+      <c r="AB16" s="193"/>
+      <c r="AC16" s="193"/>
+      <c r="AD16" s="193"/>
+      <c r="AE16" s="193"/>
+      <c r="AF16" s="193"/>
+      <c r="AG16" s="193"/>
+      <c r="AH16" s="193"/>
+      <c r="AI16" s="193"/>
+      <c r="AJ16" s="194"/>
       <c r="AL16" s="127">
         <v>7</v>
       </c>
@@ -62696,41 +62621,41 @@
       </c>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="146"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="146"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="146"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="146"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="146"/>
-      <c r="AC17" s="146"/>
-      <c r="AD17" s="146"/>
-      <c r="AE17" s="146"/>
-      <c r="AF17" s="146"/>
-      <c r="AG17" s="146"/>
-      <c r="AH17" s="146"/>
-      <c r="AI17" s="146"/>
-      <c r="AJ17" s="147"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
+      <c r="T17" s="193"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="193"/>
+      <c r="X17" s="193"/>
+      <c r="Y17" s="193"/>
+      <c r="Z17" s="193"/>
+      <c r="AA17" s="193"/>
+      <c r="AB17" s="193"/>
+      <c r="AC17" s="193"/>
+      <c r="AD17" s="193"/>
+      <c r="AE17" s="193"/>
+      <c r="AF17" s="193"/>
+      <c r="AG17" s="193"/>
+      <c r="AH17" s="193"/>
+      <c r="AI17" s="193"/>
+      <c r="AJ17" s="194"/>
       <c r="AL17" s="127">
         <v>8</v>
       </c>
@@ -62832,41 +62757,41 @@
       </c>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="147"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="193"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="193"/>
+      <c r="AC18" s="193"/>
+      <c r="AD18" s="193"/>
+      <c r="AE18" s="193"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="193"/>
+      <c r="AH18" s="193"/>
+      <c r="AI18" s="193"/>
+      <c r="AJ18" s="194"/>
       <c r="AL18" s="127">
         <v>9</v>
       </c>
@@ -62968,41 +62893,41 @@
       </c>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="146"/>
-      <c r="T19" s="146"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="146"/>
-      <c r="W19" s="146"/>
-      <c r="X19" s="146"/>
-      <c r="Y19" s="146"/>
-      <c r="Z19" s="146"/>
-      <c r="AA19" s="146"/>
-      <c r="AB19" s="146"/>
-      <c r="AC19" s="146"/>
-      <c r="AD19" s="146"/>
-      <c r="AE19" s="146"/>
-      <c r="AF19" s="146"/>
-      <c r="AG19" s="146"/>
-      <c r="AH19" s="146"/>
-      <c r="AI19" s="146"/>
-      <c r="AJ19" s="147"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="193"/>
+      <c r="M19" s="193"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="193"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="193"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="193"/>
+      <c r="Y19" s="193"/>
+      <c r="Z19" s="193"/>
+      <c r="AA19" s="193"/>
+      <c r="AB19" s="193"/>
+      <c r="AC19" s="193"/>
+      <c r="AD19" s="193"/>
+      <c r="AE19" s="193"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="193"/>
+      <c r="AH19" s="193"/>
+      <c r="AI19" s="193"/>
+      <c r="AJ19" s="194"/>
       <c r="AL19" s="127">
         <v>10</v>
       </c>
@@ -63104,41 +63029,41 @@
       </c>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="146"/>
-      <c r="Z20" s="146"/>
-      <c r="AA20" s="146"/>
-      <c r="AB20" s="146"/>
-      <c r="AC20" s="146"/>
-      <c r="AD20" s="146"/>
-      <c r="AE20" s="146"/>
-      <c r="AF20" s="146"/>
-      <c r="AG20" s="146"/>
-      <c r="AH20" s="146"/>
-      <c r="AI20" s="146"/>
-      <c r="AJ20" s="147"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="193"/>
+      <c r="M20" s="193"/>
+      <c r="N20" s="193"/>
+      <c r="O20" s="193"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="193"/>
+      <c r="S20" s="193"/>
+      <c r="T20" s="193"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="193"/>
+      <c r="W20" s="193"/>
+      <c r="X20" s="193"/>
+      <c r="Y20" s="193"/>
+      <c r="Z20" s="193"/>
+      <c r="AA20" s="193"/>
+      <c r="AB20" s="193"/>
+      <c r="AC20" s="193"/>
+      <c r="AD20" s="193"/>
+      <c r="AE20" s="193"/>
+      <c r="AF20" s="193"/>
+      <c r="AG20" s="193"/>
+      <c r="AH20" s="193"/>
+      <c r="AI20" s="193"/>
+      <c r="AJ20" s="194"/>
       <c r="AL20" s="127">
         <v>11</v>
       </c>
@@ -63240,41 +63165,41 @@
       </c>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="146"/>
-      <c r="T21" s="146"/>
-      <c r="U21" s="146"/>
-      <c r="V21" s="146"/>
-      <c r="W21" s="146"/>
-      <c r="X21" s="146"/>
-      <c r="Y21" s="146"/>
-      <c r="Z21" s="146"/>
-      <c r="AA21" s="146"/>
-      <c r="AB21" s="146"/>
-      <c r="AC21" s="146"/>
-      <c r="AD21" s="146"/>
-      <c r="AE21" s="146"/>
-      <c r="AF21" s="146"/>
-      <c r="AG21" s="146"/>
-      <c r="AH21" s="146"/>
-      <c r="AI21" s="146"/>
-      <c r="AJ21" s="147"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="193"/>
+      <c r="S21" s="193"/>
+      <c r="T21" s="193"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="193"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
+      <c r="Y21" s="193"/>
+      <c r="Z21" s="193"/>
+      <c r="AA21" s="193"/>
+      <c r="AB21" s="193"/>
+      <c r="AC21" s="193"/>
+      <c r="AD21" s="193"/>
+      <c r="AE21" s="193"/>
+      <c r="AF21" s="193"/>
+      <c r="AG21" s="193"/>
+      <c r="AH21" s="193"/>
+      <c r="AI21" s="193"/>
+      <c r="AJ21" s="194"/>
       <c r="AL21" s="127">
         <v>12</v>
       </c>
@@ -63376,41 +63301,41 @@
       </c>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="146"/>
-      <c r="S22" s="146"/>
-      <c r="T22" s="146"/>
-      <c r="U22" s="146"/>
-      <c r="V22" s="146"/>
-      <c r="W22" s="146"/>
-      <c r="X22" s="146"/>
-      <c r="Y22" s="146"/>
-      <c r="Z22" s="146"/>
-      <c r="AA22" s="146"/>
-      <c r="AB22" s="146"/>
-      <c r="AC22" s="146"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="146"/>
-      <c r="AF22" s="146"/>
-      <c r="AG22" s="146"/>
-      <c r="AH22" s="146"/>
-      <c r="AI22" s="146"/>
-      <c r="AJ22" s="147"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="193"/>
+      <c r="S22" s="193"/>
+      <c r="T22" s="193"/>
+      <c r="U22" s="193"/>
+      <c r="V22" s="193"/>
+      <c r="W22" s="193"/>
+      <c r="X22" s="193"/>
+      <c r="Y22" s="193"/>
+      <c r="Z22" s="193"/>
+      <c r="AA22" s="193"/>
+      <c r="AB22" s="193"/>
+      <c r="AC22" s="193"/>
+      <c r="AD22" s="193"/>
+      <c r="AE22" s="193"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="193"/>
+      <c r="AH22" s="193"/>
+      <c r="AI22" s="193"/>
+      <c r="AJ22" s="194"/>
       <c r="AL22" s="127">
         <v>13</v>
       </c>
@@ -63512,41 +63437,41 @@
       </c>
     </row>
     <row r="23" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
-      <c r="T23" s="146"/>
-      <c r="U23" s="146"/>
-      <c r="V23" s="146"/>
-      <c r="W23" s="146"/>
-      <c r="X23" s="146"/>
-      <c r="Y23" s="146"/>
-      <c r="Z23" s="146"/>
-      <c r="AA23" s="146"/>
-      <c r="AB23" s="146"/>
-      <c r="AC23" s="146"/>
-      <c r="AD23" s="146"/>
-      <c r="AE23" s="146"/>
-      <c r="AF23" s="146"/>
-      <c r="AG23" s="146"/>
-      <c r="AH23" s="146"/>
-      <c r="AI23" s="146"/>
-      <c r="AJ23" s="147"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="193"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="193"/>
+      <c r="S23" s="193"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="193"/>
+      <c r="Z23" s="193"/>
+      <c r="AA23" s="193"/>
+      <c r="AB23" s="193"/>
+      <c r="AC23" s="193"/>
+      <c r="AD23" s="193"/>
+      <c r="AE23" s="193"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="193"/>
+      <c r="AH23" s="193"/>
+      <c r="AI23" s="193"/>
+      <c r="AJ23" s="194"/>
       <c r="AL23" s="127">
         <v>14</v>
       </c>
@@ -63648,41 +63573,41 @@
       </c>
     </row>
     <row r="24" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="146"/>
-      <c r="S24" s="146"/>
-      <c r="T24" s="146"/>
-      <c r="U24" s="146"/>
-      <c r="V24" s="146"/>
-      <c r="W24" s="146"/>
-      <c r="X24" s="146"/>
-      <c r="Y24" s="146"/>
-      <c r="Z24" s="146"/>
-      <c r="AA24" s="146"/>
-      <c r="AB24" s="146"/>
-      <c r="AC24" s="146"/>
-      <c r="AD24" s="146"/>
-      <c r="AE24" s="146"/>
-      <c r="AF24" s="146"/>
-      <c r="AG24" s="146"/>
-      <c r="AH24" s="146"/>
-      <c r="AI24" s="146"/>
-      <c r="AJ24" s="147"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="193"/>
+      <c r="D24" s="193"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="193"/>
+      <c r="M24" s="193"/>
+      <c r="N24" s="193"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="193"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="193"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="193"/>
+      <c r="W24" s="193"/>
+      <c r="X24" s="193"/>
+      <c r="Y24" s="193"/>
+      <c r="Z24" s="193"/>
+      <c r="AA24" s="193"/>
+      <c r="AB24" s="193"/>
+      <c r="AC24" s="193"/>
+      <c r="AD24" s="193"/>
+      <c r="AE24" s="193"/>
+      <c r="AF24" s="193"/>
+      <c r="AG24" s="193"/>
+      <c r="AH24" s="193"/>
+      <c r="AI24" s="193"/>
+      <c r="AJ24" s="194"/>
       <c r="AL24" s="127">
         <v>15</v>
       </c>
@@ -63784,41 +63709,41 @@
       </c>
     </row>
     <row r="25" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="146"/>
-      <c r="T25" s="146"/>
-      <c r="U25" s="146"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="146"/>
-      <c r="Y25" s="146"/>
-      <c r="Z25" s="146"/>
-      <c r="AA25" s="146"/>
-      <c r="AB25" s="146"/>
-      <c r="AC25" s="146"/>
-      <c r="AD25" s="146"/>
-      <c r="AE25" s="146"/>
-      <c r="AF25" s="146"/>
-      <c r="AG25" s="146"/>
-      <c r="AH25" s="146"/>
-      <c r="AI25" s="146"/>
-      <c r="AJ25" s="147"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="193"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="193"/>
+      <c r="S25" s="193"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="193"/>
+      <c r="V25" s="193"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="193"/>
+      <c r="Y25" s="193"/>
+      <c r="Z25" s="193"/>
+      <c r="AA25" s="193"/>
+      <c r="AB25" s="193"/>
+      <c r="AC25" s="193"/>
+      <c r="AD25" s="193"/>
+      <c r="AE25" s="193"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="193"/>
+      <c r="AH25" s="193"/>
+      <c r="AI25" s="193"/>
+      <c r="AJ25" s="194"/>
       <c r="AL25" s="127">
         <v>16</v>
       </c>
@@ -63920,41 +63845,41 @@
       </c>
     </row>
     <row r="26" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
-      <c r="U26" s="146"/>
-      <c r="V26" s="146"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="146"/>
-      <c r="Y26" s="146"/>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="146"/>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="146"/>
-      <c r="AD26" s="146"/>
-      <c r="AE26" s="146"/>
-      <c r="AF26" s="146"/>
-      <c r="AG26" s="146"/>
-      <c r="AH26" s="146"/>
-      <c r="AI26" s="146"/>
-      <c r="AJ26" s="147"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="193"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="193"/>
+      <c r="O26" s="193"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="193"/>
+      <c r="S26" s="193"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
+      <c r="Y26" s="193"/>
+      <c r="Z26" s="193"/>
+      <c r="AA26" s="193"/>
+      <c r="AB26" s="193"/>
+      <c r="AC26" s="193"/>
+      <c r="AD26" s="193"/>
+      <c r="AE26" s="193"/>
+      <c r="AF26" s="193"/>
+      <c r="AG26" s="193"/>
+      <c r="AH26" s="193"/>
+      <c r="AI26" s="193"/>
+      <c r="AJ26" s="194"/>
       <c r="AL26" s="127">
         <v>17</v>
       </c>
@@ -64056,41 +63981,41 @@
       </c>
     </row>
     <row r="27" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="146"/>
-      <c r="U27" s="146"/>
-      <c r="V27" s="146"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="146"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="146"/>
-      <c r="AA27" s="146"/>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="146"/>
-      <c r="AE27" s="146"/>
-      <c r="AF27" s="146"/>
-      <c r="AG27" s="146"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="146"/>
-      <c r="AJ27" s="147"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="193"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="193"/>
+      <c r="N27" s="193"/>
+      <c r="O27" s="193"/>
+      <c r="P27" s="193"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="193"/>
+      <c r="S27" s="193"/>
+      <c r="T27" s="193"/>
+      <c r="U27" s="193"/>
+      <c r="V27" s="193"/>
+      <c r="W27" s="193"/>
+      <c r="X27" s="193"/>
+      <c r="Y27" s="193"/>
+      <c r="Z27" s="193"/>
+      <c r="AA27" s="193"/>
+      <c r="AB27" s="193"/>
+      <c r="AC27" s="193"/>
+      <c r="AD27" s="193"/>
+      <c r="AE27" s="193"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="193"/>
+      <c r="AH27" s="193"/>
+      <c r="AI27" s="193"/>
+      <c r="AJ27" s="194"/>
       <c r="AL27" s="127">
         <v>18</v>
       </c>
@@ -64192,41 +64117,41 @@
       </c>
     </row>
     <row r="28" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="146"/>
-      <c r="W28" s="146"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="146"/>
-      <c r="Z28" s="146"/>
-      <c r="AA28" s="146"/>
-      <c r="AB28" s="146"/>
-      <c r="AC28" s="146"/>
-      <c r="AD28" s="146"/>
-      <c r="AE28" s="146"/>
-      <c r="AF28" s="146"/>
-      <c r="AG28" s="146"/>
-      <c r="AH28" s="146"/>
-      <c r="AI28" s="146"/>
-      <c r="AJ28" s="147"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="193"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="193"/>
+      <c r="N28" s="193"/>
+      <c r="O28" s="193"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
+      <c r="T28" s="193"/>
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="193"/>
+      <c r="X28" s="193"/>
+      <c r="Y28" s="193"/>
+      <c r="Z28" s="193"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="193"/>
+      <c r="AC28" s="193"/>
+      <c r="AD28" s="193"/>
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="193"/>
+      <c r="AH28" s="193"/>
+      <c r="AI28" s="193"/>
+      <c r="AJ28" s="194"/>
       <c r="AL28" s="127">
         <v>19</v>
       </c>
@@ -64328,41 +64253,41 @@
       </c>
     </row>
     <row r="29" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="146"/>
-      <c r="W29" s="146"/>
-      <c r="X29" s="146"/>
-      <c r="Y29" s="146"/>
-      <c r="Z29" s="146"/>
-      <c r="AA29" s="146"/>
-      <c r="AB29" s="146"/>
-      <c r="AC29" s="146"/>
-      <c r="AD29" s="146"/>
-      <c r="AE29" s="146"/>
-      <c r="AF29" s="146"/>
-      <c r="AG29" s="146"/>
-      <c r="AH29" s="146"/>
-      <c r="AI29" s="146"/>
-      <c r="AJ29" s="147"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="193"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="193"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="193"/>
+      <c r="N29" s="193"/>
+      <c r="O29" s="193"/>
+      <c r="P29" s="193"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="193"/>
+      <c r="T29" s="193"/>
+      <c r="U29" s="193"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="193"/>
+      <c r="X29" s="193"/>
+      <c r="Y29" s="193"/>
+      <c r="Z29" s="193"/>
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="193"/>
+      <c r="AC29" s="193"/>
+      <c r="AD29" s="193"/>
+      <c r="AE29" s="193"/>
+      <c r="AF29" s="193"/>
+      <c r="AG29" s="193"/>
+      <c r="AH29" s="193"/>
+      <c r="AI29" s="193"/>
+      <c r="AJ29" s="194"/>
       <c r="AL29" s="127">
         <v>20</v>
       </c>
@@ -64464,41 +64389,41 @@
       </c>
     </row>
     <row r="30" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="146"/>
-      <c r="W30" s="146"/>
-      <c r="X30" s="146"/>
-      <c r="Y30" s="146"/>
-      <c r="Z30" s="146"/>
-      <c r="AA30" s="146"/>
-      <c r="AB30" s="146"/>
-      <c r="AC30" s="146"/>
-      <c r="AD30" s="146"/>
-      <c r="AE30" s="146"/>
-      <c r="AF30" s="146"/>
-      <c r="AG30" s="146"/>
-      <c r="AH30" s="146"/>
-      <c r="AI30" s="146"/>
-      <c r="AJ30" s="147"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="193"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="193"/>
+      <c r="O30" s="193"/>
+      <c r="P30" s="193"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="193"/>
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="193"/>
+      <c r="Y30" s="193"/>
+      <c r="Z30" s="193"/>
+      <c r="AA30" s="193"/>
+      <c r="AB30" s="193"/>
+      <c r="AC30" s="193"/>
+      <c r="AD30" s="193"/>
+      <c r="AE30" s="193"/>
+      <c r="AF30" s="193"/>
+      <c r="AG30" s="193"/>
+      <c r="AH30" s="193"/>
+      <c r="AI30" s="193"/>
+      <c r="AJ30" s="194"/>
       <c r="AL30" s="127">
         <v>21</v>
       </c>
@@ -64600,41 +64525,41 @@
       </c>
     </row>
     <row r="31" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B31" s="145"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="146"/>
-      <c r="W31" s="146"/>
-      <c r="X31" s="146"/>
-      <c r="Y31" s="146"/>
-      <c r="Z31" s="146"/>
-      <c r="AA31" s="146"/>
-      <c r="AB31" s="146"/>
-      <c r="AC31" s="146"/>
-      <c r="AD31" s="146"/>
-      <c r="AE31" s="146"/>
-      <c r="AF31" s="146"/>
-      <c r="AG31" s="146"/>
-      <c r="AH31" s="146"/>
-      <c r="AI31" s="146"/>
-      <c r="AJ31" s="147"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="193"/>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="193"/>
+      <c r="S31" s="193"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="193"/>
+      <c r="V31" s="193"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="193"/>
+      <c r="Y31" s="193"/>
+      <c r="Z31" s="193"/>
+      <c r="AA31" s="193"/>
+      <c r="AB31" s="193"/>
+      <c r="AC31" s="193"/>
+      <c r="AD31" s="193"/>
+      <c r="AE31" s="193"/>
+      <c r="AF31" s="193"/>
+      <c r="AG31" s="193"/>
+      <c r="AH31" s="193"/>
+      <c r="AI31" s="193"/>
+      <c r="AJ31" s="194"/>
       <c r="AL31" s="127">
         <v>22</v>
       </c>
@@ -64736,41 +64661,41 @@
       </c>
     </row>
     <row r="32" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="146"/>
-      <c r="W32" s="146"/>
-      <c r="X32" s="146"/>
-      <c r="Y32" s="146"/>
-      <c r="Z32" s="146"/>
-      <c r="AA32" s="146"/>
-      <c r="AB32" s="146"/>
-      <c r="AC32" s="146"/>
-      <c r="AD32" s="146"/>
-      <c r="AE32" s="146"/>
-      <c r="AF32" s="146"/>
-      <c r="AG32" s="146"/>
-      <c r="AH32" s="146"/>
-      <c r="AI32" s="146"/>
-      <c r="AJ32" s="147"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="193"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="193"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="193"/>
+      <c r="S32" s="193"/>
+      <c r="T32" s="193"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="193"/>
+      <c r="W32" s="193"/>
+      <c r="X32" s="193"/>
+      <c r="Y32" s="193"/>
+      <c r="Z32" s="193"/>
+      <c r="AA32" s="193"/>
+      <c r="AB32" s="193"/>
+      <c r="AC32" s="193"/>
+      <c r="AD32" s="193"/>
+      <c r="AE32" s="193"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="193"/>
+      <c r="AH32" s="193"/>
+      <c r="AI32" s="193"/>
+      <c r="AJ32" s="194"/>
       <c r="AL32" s="127">
         <v>23</v>
       </c>
@@ -64872,41 +64797,41 @@
       </c>
     </row>
     <row r="33" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="146"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="146"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="146"/>
-      <c r="AC33" s="146"/>
-      <c r="AD33" s="146"/>
-      <c r="AE33" s="146"/>
-      <c r="AF33" s="146"/>
-      <c r="AG33" s="146"/>
-      <c r="AH33" s="146"/>
-      <c r="AI33" s="146"/>
-      <c r="AJ33" s="147"/>
+      <c r="B33" s="192"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="193"/>
+      <c r="M33" s="193"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="193"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="193"/>
+      <c r="X33" s="193"/>
+      <c r="Y33" s="193"/>
+      <c r="Z33" s="193"/>
+      <c r="AA33" s="193"/>
+      <c r="AB33" s="193"/>
+      <c r="AC33" s="193"/>
+      <c r="AD33" s="193"/>
+      <c r="AE33" s="193"/>
+      <c r="AF33" s="193"/>
+      <c r="AG33" s="193"/>
+      <c r="AH33" s="193"/>
+      <c r="AI33" s="193"/>
+      <c r="AJ33" s="194"/>
       <c r="AL33" s="127">
         <v>24</v>
       </c>
@@ -65008,41 +64933,41 @@
       </c>
     </row>
     <row r="34" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B34" s="148"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="149"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="149"/>
-      <c r="AA34" s="149"/>
-      <c r="AB34" s="149"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="149"/>
-      <c r="AF34" s="149"/>
-      <c r="AG34" s="149"/>
-      <c r="AH34" s="149"/>
-      <c r="AI34" s="149"/>
-      <c r="AJ34" s="150"/>
+      <c r="B34" s="195"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
+      <c r="N34" s="196"/>
+      <c r="O34" s="196"/>
+      <c r="P34" s="196"/>
+      <c r="Q34" s="196"/>
+      <c r="R34" s="196"/>
+      <c r="S34" s="196"/>
+      <c r="T34" s="196"/>
+      <c r="U34" s="196"/>
+      <c r="V34" s="196"/>
+      <c r="W34" s="196"/>
+      <c r="X34" s="196"/>
+      <c r="Y34" s="196"/>
+      <c r="Z34" s="196"/>
+      <c r="AA34" s="196"/>
+      <c r="AB34" s="196"/>
+      <c r="AC34" s="196"/>
+      <c r="AD34" s="196"/>
+      <c r="AE34" s="196"/>
+      <c r="AF34" s="196"/>
+      <c r="AG34" s="196"/>
+      <c r="AH34" s="196"/>
+      <c r="AI34" s="196"/>
+      <c r="AJ34" s="197"/>
       <c r="AL34" s="127">
         <v>25</v>
       </c>

--- a/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
+++ b/doc/TemplatePlanilhaComProjetoDoUsuario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Atrium\rurallegal\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B17232A-317B-4F5D-B1F2-22DBB37F0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74922850-E60E-4BA4-966D-65D1A2C3B15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="782" firstSheet="1" activeTab="1" xr2:uid="{C6048805-B876-472F-813A-7447540CBDCB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2654,69 +2654,6 @@
     <t>AreaOcupacaoIndividual</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A região do estado e o tipo de vegetação (fitofisionomia) onde está a propriedade para buscar no banco de dados quais as espécies estão adaptadas àquele local.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Onde o proprietário vai plantar dentro da sua propriedade, se na APP – Área de Preservação Permanente (exclusivamente no caso de imóveis com até 4 módulos fiscais), RL-Reserva Legal ou AUA-Área de Uso Alternativo. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A distribuição de plantio escolhida pelo usuário, isto é, quais as faixas que serão combinadas (descritas no item anterior).</t>
-    </r>
-  </si>
-  <si>
     <t>As espécies adaptadas são ranqueadas por um sistema multicritério que considera variáveis econômicas, ecológicas e de conservação para  o plantio nas faixas escolhidas. Os pesos do sistema multicritério são validados pelo comitê técnico- científico.</t>
   </si>
   <si>
@@ -2724,6 +2661,15 @@
   </si>
   <si>
     <t xml:space="preserve">As combinações são ordenadas pela Taxa Interna de Retorno (TIR%) do fluxo de caixa produzido pela combinação de espécies, e as melhores combinações são apresentadas ao usuário, que seleciona a de sua preferência. </t>
+  </si>
+  <si>
+    <t>A região do estado e o tipo de vegetação (fitofisionomia) onde está a propriedade para buscar no banco de dados quais as espécies estão adaptadas àquele local.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onde o proprietário vai plantar dentro da sua propriedade, se na APP – Área de Preservação Permanente (exclusivamente no caso de imóveis com até 4 módulos fiscais), RL-Reserva Legal ou AUA-Área de Uso Alternativo. </t>
+  </si>
+  <si>
+    <t>A distribuição de plantio escolhida pelo usuário, isto é, quais as faixas que serão combinadas (descritas no item anterior).</t>
   </si>
 </sst>
 </file>
@@ -3775,7 +3721,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4136,6 +4082,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4240,12 +4189,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -54569,7 +54512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F0E4673-DC4E-4FE2-BD2D-5EED45AEFA54}" name="tbDinSilvicultura" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F0E4673-DC4E-4FE2-BD2D-5EED45AEFA54}" name="tbDinSilvicultura" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:AF23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -56552,8 +56495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C81870-465F-4704-9664-FBDB9B54C268}">
   <dimension ref="A2:G239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56980,24 +56923,24 @@
       </c>
       <c r="C95" s="73"/>
     </row>
-    <row r="96" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="72"/>
-      <c r="B96" s="205" t="s">
-        <v>317</v>
+      <c r="B96" s="153" t="s">
+        <v>320</v>
       </c>
       <c r="C96" s="73"/>
     </row>
-    <row r="97" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="72"/>
-      <c r="B97" s="205" t="s">
-        <v>318</v>
+      <c r="B97" s="153" t="s">
+        <v>321</v>
       </c>
       <c r="C97" s="73"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="72"/>
-      <c r="B98" s="205" t="s">
-        <v>319</v>
+      <c r="B98" s="153" t="s">
+        <v>322</v>
       </c>
       <c r="C98" s="73"/>
     </row>
@@ -57010,8 +56953,8 @@
     </row>
     <row r="100" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="72"/>
-      <c r="B100" s="206" t="s">
-        <v>320</v>
+      <c r="B100" s="170" t="s">
+        <v>317</v>
       </c>
       <c r="C100" s="73"/>
     </row>
@@ -57024,8 +56967,8 @@
     </row>
     <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="72"/>
-      <c r="B102" s="206" t="s">
-        <v>321</v>
+      <c r="B102" s="170" t="s">
+        <v>318</v>
       </c>
       <c r="C102" s="73"/>
     </row>
@@ -57038,8 +56981,8 @@
     </row>
     <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="72"/>
-      <c r="B104" s="206" t="s">
-        <v>322</v>
+      <c r="B104" s="170" t="s">
+        <v>319</v>
       </c>
       <c r="C104" s="73"/>
     </row>
@@ -57456,13 +57399,13 @@
       <c r="D172" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="E172" s="170" t="s">
+      <c r="E172" s="171" t="s">
         <v>301</v>
       </c>
-      <c r="F172" s="172" t="s">
+      <c r="F172" s="173" t="s">
         <v>302</v>
       </c>
-      <c r="G172" s="174" t="s">
+      <c r="G172" s="175" t="s">
         <v>303</v>
       </c>
     </row>
@@ -57471,9 +57414,9 @@
       <c r="D173" s="164" t="s">
         <v>97</v>
       </c>
-      <c r="E173" s="171"/>
-      <c r="F173" s="173"/>
-      <c r="G173" s="175"/>
+      <c r="E173" s="172"/>
+      <c r="F173" s="174"/>
+      <c r="G173" s="176"/>
     </row>
     <row r="174" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="149" t="s">
@@ -57918,32 +57861,32 @@
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="179"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="97"/>
       <c r="B9" s="91"/>
       <c r="C9" s="91"/>
       <c r="D9" s="91"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="179"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="97"/>
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="179"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="100"/>
@@ -57958,24 +57901,24 @@
     <row r="12" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="104"/>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="182"/>
     </row>
     <row r="14" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="179"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="95" t="s">
         <v>71</v>
       </c>
@@ -58026,11 +57969,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="97"/>
-      <c r="B20" s="176" t="s">
+      <c r="B20" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="93" t="s">
         <v>102</v>
       </c>
@@ -58040,11 +57983,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="97"/>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
       <c r="E21" s="93" t="s">
         <v>1</v>
       </c>
@@ -58054,11 +57997,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="97"/>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="93" t="s">
         <v>2</v>
       </c>
@@ -60004,10 +59947,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="182" t="s">
+      <c r="K8" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="183"/>
+      <c r="L8" s="184"/>
       <c r="M8" s="32">
         <v>7.8899999999999998E-2</v>
       </c>
@@ -60935,84 +60878,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:104" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
-      <c r="AD1" s="199"/>
-      <c r="AE1" s="199"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="199"/>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="199"/>
-      <c r="AJ1" s="200"/>
-      <c r="AN1" s="184" t="s">
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="200"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="200"/>
+      <c r="AJ1" s="201"/>
+      <c r="AN1" s="185" t="s">
         <v>174</v>
       </c>
-      <c r="AO1" s="185"/>
-      <c r="AP1" s="185"/>
-      <c r="AQ1" s="185"/>
-      <c r="AR1" s="185"/>
-      <c r="AS1" s="185"/>
-      <c r="AT1" s="185"/>
-      <c r="AU1" s="185"/>
-      <c r="AV1" s="185"/>
-      <c r="AW1" s="185"/>
-      <c r="AX1" s="185"/>
-      <c r="AY1" s="185"/>
-      <c r="AZ1" s="185"/>
-      <c r="BA1" s="185"/>
-      <c r="BB1" s="185"/>
-      <c r="BC1" s="185"/>
-      <c r="BD1" s="185"/>
-      <c r="BE1" s="185"/>
-      <c r="BF1" s="185"/>
-      <c r="BG1" s="185"/>
-      <c r="BH1" s="185"/>
-      <c r="BI1" s="185"/>
-      <c r="BJ1" s="185"/>
-      <c r="BK1" s="185"/>
-      <c r="BL1" s="185"/>
-      <c r="BM1" s="185"/>
-      <c r="BN1" s="185"/>
-      <c r="BO1" s="185"/>
-      <c r="BP1" s="185"/>
-      <c r="BQ1" s="185"/>
-      <c r="BR1" s="185"/>
-      <c r="BS1" s="186"/>
-      <c r="BU1" s="187" t="s">
+      <c r="AO1" s="186"/>
+      <c r="AP1" s="186"/>
+      <c r="AQ1" s="186"/>
+      <c r="AR1" s="186"/>
+      <c r="AS1" s="186"/>
+      <c r="AT1" s="186"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="186"/>
+      <c r="BA1" s="186"/>
+      <c r="BB1" s="186"/>
+      <c r="BC1" s="186"/>
+      <c r="BD1" s="186"/>
+      <c r="BE1" s="186"/>
+      <c r="BF1" s="186"/>
+      <c r="BG1" s="186"/>
+      <c r="BH1" s="186"/>
+      <c r="BI1" s="186"/>
+      <c r="BJ1" s="186"/>
+      <c r="BK1" s="186"/>
+      <c r="BL1" s="186"/>
+      <c r="BM1" s="186"/>
+      <c r="BN1" s="186"/>
+      <c r="BO1" s="186"/>
+      <c r="BP1" s="186"/>
+      <c r="BQ1" s="186"/>
+      <c r="BR1" s="186"/>
+      <c r="BS1" s="187"/>
+      <c r="BU1" s="188" t="s">
         <v>175</v>
       </c>
-      <c r="BV1" s="188"/>
-      <c r="BW1" s="188"/>
-      <c r="BX1" s="188"/>
-      <c r="BY1" s="188"/>
+      <c r="BV1" s="189"/>
+      <c r="BW1" s="189"/>
+      <c r="BX1" s="189"/>
+      <c r="BY1" s="189"/>
       <c r="BZ1" s="89"/>
       <c r="CA1" s="89"/>
       <c r="CB1" s="89"/>
@@ -61042,41 +60985,41 @@
       <c r="CZ1" s="90"/>
     </row>
     <row r="2" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B2" s="201"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202"/>
-      <c r="U2" s="202"/>
-      <c r="V2" s="202"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="202"/>
-      <c r="AE2" s="202"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="202"/>
-      <c r="AH2" s="202"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="203"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="204"/>
       <c r="AN2" s="80" t="s">
         <v>113</v>
       </c>
@@ -61231,43 +61174,43 @@
       <c r="CB3" s="65"/>
     </row>
     <row r="4" spans="2:104" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="190" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="190"/>
-      <c r="R4" s="190"/>
-      <c r="S4" s="190"/>
-      <c r="T4" s="190"/>
-      <c r="U4" s="190"/>
-      <c r="V4" s="190"/>
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="190"/>
-      <c r="AE4" s="190"/>
-      <c r="AF4" s="190"/>
-      <c r="AG4" s="190"/>
-      <c r="AH4" s="190"/>
-      <c r="AI4" s="190"/>
-      <c r="AJ4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="191"/>
+      <c r="R4" s="191"/>
+      <c r="S4" s="191"/>
+      <c r="T4" s="191"/>
+      <c r="U4" s="191"/>
+      <c r="V4" s="191"/>
+      <c r="W4" s="191"/>
+      <c r="X4" s="191"/>
+      <c r="Y4" s="191"/>
+      <c r="Z4" s="191"/>
+      <c r="AA4" s="191"/>
+      <c r="AB4" s="191"/>
+      <c r="AC4" s="191"/>
+      <c r="AD4" s="191"/>
+      <c r="AE4" s="191"/>
+      <c r="AF4" s="191"/>
+      <c r="AG4" s="191"/>
+      <c r="AH4" s="191"/>
+      <c r="AI4" s="191"/>
+      <c r="AJ4" s="192"/>
       <c r="AN4" s="84" t="s">
         <v>118</v>
       </c>
@@ -61308,41 +61251,41 @@
       <c r="BS4" s="83"/>
     </row>
     <row r="5" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B5" s="192"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="193"/>
-      <c r="AC5" s="193"/>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="193"/>
-      <c r="AF5" s="193"/>
-      <c r="AG5" s="193"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="194"/>
+      <c r="B5" s="193"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="194"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
+      <c r="AB5" s="194"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="194"/>
+      <c r="AE5" s="194"/>
+      <c r="AF5" s="194"/>
+      <c r="AG5" s="194"/>
+      <c r="AH5" s="194"/>
+      <c r="AI5" s="194"/>
+      <c r="AJ5" s="195"/>
       <c r="AN5" s="85" t="s">
         <v>122</v>
       </c>
@@ -61383,157 +61326,157 @@
       <c r="BS5" s="88"/>
     </row>
     <row r="6" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B6" s="192"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="193"/>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193"/>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="194"/>
+      <c r="B6" s="193"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="194"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="195"/>
       <c r="AM6" s="64"/>
       <c r="BS6"/>
     </row>
     <row r="7" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B7" s="192"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
-      <c r="AB7" s="193"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="193"/>
-      <c r="AE7" s="193"/>
-      <c r="AF7" s="193"/>
-      <c r="AG7" s="193"/>
-      <c r="AH7" s="193"/>
-      <c r="AI7" s="193"/>
-      <c r="AJ7" s="194"/>
-      <c r="AN7" s="204" t="s">
+      <c r="B7" s="193"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="194"/>
+      <c r="U7" s="194"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="194"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
+      <c r="AB7" s="194"/>
+      <c r="AC7" s="194"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="194"/>
+      <c r="AG7" s="194"/>
+      <c r="AH7" s="194"/>
+      <c r="AI7" s="194"/>
+      <c r="AJ7" s="195"/>
+      <c r="AN7" s="205" t="s">
         <v>120</v>
       </c>
-      <c r="AO7" s="204"/>
-      <c r="AP7" s="204"/>
-      <c r="AQ7" s="204"/>
-      <c r="AR7" s="204"/>
-      <c r="AS7" s="204"/>
-      <c r="AT7" s="204"/>
-      <c r="AU7" s="204"/>
-      <c r="AV7" s="204" t="s">
+      <c r="AO7" s="205"/>
+      <c r="AP7" s="205"/>
+      <c r="AQ7" s="205"/>
+      <c r="AR7" s="205"/>
+      <c r="AS7" s="205"/>
+      <c r="AT7" s="205"/>
+      <c r="AU7" s="205"/>
+      <c r="AV7" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="AW7" s="204"/>
-      <c r="AX7" s="204"/>
-      <c r="AY7" s="204"/>
-      <c r="AZ7" s="204"/>
-      <c r="BA7" s="204"/>
-      <c r="BB7" s="204"/>
-      <c r="BC7" s="204"/>
-      <c r="BD7" s="204" t="s">
+      <c r="AW7" s="205"/>
+      <c r="AX7" s="205"/>
+      <c r="AY7" s="205"/>
+      <c r="AZ7" s="205"/>
+      <c r="BA7" s="205"/>
+      <c r="BB7" s="205"/>
+      <c r="BC7" s="205"/>
+      <c r="BD7" s="205" t="s">
         <v>120</v>
       </c>
-      <c r="BE7" s="204"/>
-      <c r="BF7" s="204"/>
-      <c r="BG7" s="204"/>
-      <c r="BH7" s="204"/>
-      <c r="BI7" s="204"/>
-      <c r="BJ7" s="204"/>
-      <c r="BK7" s="204"/>
-      <c r="BL7" s="204" t="s">
+      <c r="BE7" s="205"/>
+      <c r="BF7" s="205"/>
+      <c r="BG7" s="205"/>
+      <c r="BH7" s="205"/>
+      <c r="BI7" s="205"/>
+      <c r="BJ7" s="205"/>
+      <c r="BK7" s="205"/>
+      <c r="BL7" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="BM7" s="204"/>
-      <c r="BN7" s="204"/>
-      <c r="BO7" s="204"/>
-      <c r="BP7" s="204"/>
-      <c r="BQ7" s="204"/>
-      <c r="BR7" s="204"/>
-      <c r="BS7" s="204"/>
+      <c r="BM7" s="205"/>
+      <c r="BN7" s="205"/>
+      <c r="BO7" s="205"/>
+      <c r="BP7" s="205"/>
+      <c r="BQ7" s="205"/>
+      <c r="BR7" s="205"/>
+      <c r="BS7" s="205"/>
     </row>
     <row r="8" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B8" s="192"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
-      <c r="AB8" s="193"/>
-      <c r="AC8" s="193"/>
-      <c r="AD8" s="193"/>
-      <c r="AE8" s="193"/>
-      <c r="AF8" s="193"/>
-      <c r="AG8" s="193"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="193"/>
-      <c r="AJ8" s="194"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="194"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="194"/>
+      <c r="AG8" s="194"/>
+      <c r="AH8" s="194"/>
+      <c r="AI8" s="194"/>
+      <c r="AJ8" s="195"/>
       <c r="AN8" s="105">
         <v>1</v>
       </c>
@@ -61632,78 +61575,78 @@
       </c>
     </row>
     <row r="9" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B9" s="192"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="193"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="193"/>
-      <c r="AD9" s="193"/>
-      <c r="AE9" s="193"/>
-      <c r="AF9" s="193"/>
-      <c r="AG9" s="193"/>
-      <c r="AH9" s="193"/>
-      <c r="AI9" s="193"/>
-      <c r="AJ9" s="194"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="194"/>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="194"/>
+      <c r="AI9" s="194"/>
+      <c r="AJ9" s="195"/>
     </row>
     <row r="10" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B10" s="192"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="193"/>
-      <c r="V10" s="193"/>
-      <c r="W10" s="193"/>
-      <c r="X10" s="193"/>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="193"/>
-      <c r="AE10" s="193"/>
-      <c r="AF10" s="193"/>
-      <c r="AG10" s="193"/>
-      <c r="AH10" s="193"/>
-      <c r="AI10" s="193"/>
-      <c r="AJ10" s="194"/>
+      <c r="B10" s="193"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="194"/>
+      <c r="AJ10" s="195"/>
       <c r="AL10" s="126">
         <v>1</v>
       </c>
@@ -61805,41 +61748,41 @@
       </c>
     </row>
     <row r="11" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="193"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="193"/>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="193"/>
-      <c r="R11" s="193"/>
-      <c r="S11" s="193"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="193"/>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="193"/>
-      <c r="AB11" s="193"/>
-      <c r="AC11" s="193"/>
-      <c r="AD11" s="193"/>
-      <c r="AE11" s="193"/>
-      <c r="AF11" s="193"/>
-      <c r="AG11" s="193"/>
-      <c r="AH11" s="193"/>
-      <c r="AI11" s="193"/>
-      <c r="AJ11" s="194"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="194"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="194"/>
+      <c r="AI11" s="194"/>
+      <c r="AJ11" s="195"/>
       <c r="AL11" s="127">
         <v>2</v>
       </c>
@@ -61941,41 +61884,41 @@
       </c>
     </row>
     <row r="12" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B12" s="192"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="193"/>
-      <c r="S12" s="193"/>
-      <c r="T12" s="193"/>
-      <c r="U12" s="193"/>
-      <c r="V12" s="193"/>
-      <c r="W12" s="193"/>
-      <c r="X12" s="193"/>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="193"/>
-      <c r="AC12" s="193"/>
-      <c r="AD12" s="193"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="193"/>
-      <c r="AG12" s="193"/>
-      <c r="AH12" s="193"/>
-      <c r="AI12" s="193"/>
-      <c r="AJ12" s="194"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="194"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="194"/>
+      <c r="AJ12" s="195"/>
       <c r="AL12" s="127">
         <v>3</v>
       </c>
@@ -62077,41 +62020,41 @@
       </c>
     </row>
     <row r="13" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B13" s="192"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="193"/>
-      <c r="S13" s="193"/>
-      <c r="T13" s="193"/>
-      <c r="U13" s="193"/>
-      <c r="V13" s="193"/>
-      <c r="W13" s="193"/>
-      <c r="X13" s="193"/>
-      <c r="Y13" s="193"/>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
-      <c r="AB13" s="193"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="193"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="193"/>
-      <c r="AG13" s="193"/>
-      <c r="AH13" s="193"/>
-      <c r="AI13" s="193"/>
-      <c r="AJ13" s="194"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="194"/>
+      <c r="AF13" s="194"/>
+      <c r="AG13" s="194"/>
+      <c r="AH13" s="194"/>
+      <c r="AI13" s="194"/>
+      <c r="AJ13" s="195"/>
       <c r="AL13" s="127">
         <v>4</v>
       </c>
@@ -62213,41 +62156,41 @@
       </c>
     </row>
     <row r="14" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B14" s="192"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="193"/>
-      <c r="R14" s="193"/>
-      <c r="S14" s="193"/>
-      <c r="T14" s="193"/>
-      <c r="U14" s="193"/>
-      <c r="V14" s="193"/>
-      <c r="W14" s="193"/>
-      <c r="X14" s="193"/>
-      <c r="Y14" s="193"/>
-      <c r="Z14" s="193"/>
-      <c r="AA14" s="193"/>
-      <c r="AB14" s="193"/>
-      <c r="AC14" s="193"/>
-      <c r="AD14" s="193"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="193"/>
-      <c r="AG14" s="193"/>
-      <c r="AH14" s="193"/>
-      <c r="AI14" s="193"/>
-      <c r="AJ14" s="194"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="194"/>
+      <c r="AF14" s="194"/>
+      <c r="AG14" s="194"/>
+      <c r="AH14" s="194"/>
+      <c r="AI14" s="194"/>
+      <c r="AJ14" s="195"/>
       <c r="AL14" s="127">
         <v>5</v>
       </c>
@@ -62349,41 +62292,41 @@
       </c>
     </row>
     <row r="15" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B15" s="192"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="193"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="193"/>
-      <c r="S15" s="193"/>
-      <c r="T15" s="193"/>
-      <c r="U15" s="193"/>
-      <c r="V15" s="193"/>
-      <c r="W15" s="193"/>
-      <c r="X15" s="193"/>
-      <c r="Y15" s="193"/>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="193"/>
-      <c r="AB15" s="193"/>
-      <c r="AC15" s="193"/>
-      <c r="AD15" s="193"/>
-      <c r="AE15" s="193"/>
-      <c r="AF15" s="193"/>
-      <c r="AG15" s="193"/>
-      <c r="AH15" s="193"/>
-      <c r="AI15" s="193"/>
-      <c r="AJ15" s="194"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="194"/>
+      <c r="AG15" s="194"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="194"/>
+      <c r="AJ15" s="195"/>
       <c r="AL15" s="127">
         <v>6</v>
       </c>
@@ -62485,41 +62428,41 @@
       </c>
     </row>
     <row r="16" spans="2:104" x14ac:dyDescent="0.3">
-      <c r="B16" s="192"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="193"/>
-      <c r="N16" s="193"/>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="193"/>
-      <c r="S16" s="193"/>
-      <c r="T16" s="193"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
-      <c r="Y16" s="193"/>
-      <c r="Z16" s="193"/>
-      <c r="AA16" s="193"/>
-      <c r="AB16" s="193"/>
-      <c r="AC16" s="193"/>
-      <c r="AD16" s="193"/>
-      <c r="AE16" s="193"/>
-      <c r="AF16" s="193"/>
-      <c r="AG16" s="193"/>
-      <c r="AH16" s="193"/>
-      <c r="AI16" s="193"/>
-      <c r="AJ16" s="194"/>
+      <c r="B16" s="193"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="194"/>
+      <c r="AF16" s="194"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="194"/>
+      <c r="AI16" s="194"/>
+      <c r="AJ16" s="195"/>
       <c r="AL16" s="127">
         <v>7</v>
       </c>
@@ -62621,41 +62564,41 @@
       </c>
     </row>
     <row r="17" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B17" s="192"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="193"/>
-      <c r="S17" s="193"/>
-      <c r="T17" s="193"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="193"/>
-      <c r="W17" s="193"/>
-      <c r="X17" s="193"/>
-      <c r="Y17" s="193"/>
-      <c r="Z17" s="193"/>
-      <c r="AA17" s="193"/>
-      <c r="AB17" s="193"/>
-      <c r="AC17" s="193"/>
-      <c r="AD17" s="193"/>
-      <c r="AE17" s="193"/>
-      <c r="AF17" s="193"/>
-      <c r="AG17" s="193"/>
-      <c r="AH17" s="193"/>
-      <c r="AI17" s="193"/>
-      <c r="AJ17" s="194"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="194"/>
+      <c r="AF17" s="194"/>
+      <c r="AG17" s="194"/>
+      <c r="AH17" s="194"/>
+      <c r="AI17" s="194"/>
+      <c r="AJ17" s="195"/>
       <c r="AL17" s="127">
         <v>8</v>
       </c>
@@ -62757,41 +62700,41 @@
       </c>
     </row>
     <row r="18" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B18" s="192"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="193"/>
-      <c r="R18" s="193"/>
-      <c r="S18" s="193"/>
-      <c r="T18" s="193"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="193"/>
-      <c r="X18" s="193"/>
-      <c r="Y18" s="193"/>
-      <c r="Z18" s="193"/>
-      <c r="AA18" s="193"/>
-      <c r="AB18" s="193"/>
-      <c r="AC18" s="193"/>
-      <c r="AD18" s="193"/>
-      <c r="AE18" s="193"/>
-      <c r="AF18" s="193"/>
-      <c r="AG18" s="193"/>
-      <c r="AH18" s="193"/>
-      <c r="AI18" s="193"/>
-      <c r="AJ18" s="194"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="194"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="194"/>
+      <c r="AI18" s="194"/>
+      <c r="AJ18" s="195"/>
       <c r="AL18" s="127">
         <v>9</v>
       </c>
@@ -62893,41 +62836,41 @@
       </c>
     </row>
     <row r="19" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B19" s="192"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="193"/>
-      <c r="L19" s="193"/>
-      <c r="M19" s="193"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="193"/>
-      <c r="P19" s="193"/>
-      <c r="Q19" s="193"/>
-      <c r="R19" s="193"/>
-      <c r="S19" s="193"/>
-      <c r="T19" s="193"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="193"/>
-      <c r="W19" s="193"/>
-      <c r="X19" s="193"/>
-      <c r="Y19" s="193"/>
-      <c r="Z19" s="193"/>
-      <c r="AA19" s="193"/>
-      <c r="AB19" s="193"/>
-      <c r="AC19" s="193"/>
-      <c r="AD19" s="193"/>
-      <c r="AE19" s="193"/>
-      <c r="AF19" s="193"/>
-      <c r="AG19" s="193"/>
-      <c r="AH19" s="193"/>
-      <c r="AI19" s="193"/>
-      <c r="AJ19" s="194"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="194"/>
+      <c r="AF19" s="194"/>
+      <c r="AG19" s="194"/>
+      <c r="AH19" s="194"/>
+      <c r="AI19" s="194"/>
+      <c r="AJ19" s="195"/>
       <c r="AL19" s="127">
         <v>10</v>
       </c>
@@ -63029,41 +62972,41 @@
       </c>
     </row>
     <row r="20" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B20" s="192"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="193"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="193"/>
-      <c r="P20" s="193"/>
-      <c r="Q20" s="193"/>
-      <c r="R20" s="193"/>
-      <c r="S20" s="193"/>
-      <c r="T20" s="193"/>
-      <c r="U20" s="193"/>
-      <c r="V20" s="193"/>
-      <c r="W20" s="193"/>
-      <c r="X20" s="193"/>
-      <c r="Y20" s="193"/>
-      <c r="Z20" s="193"/>
-      <c r="AA20" s="193"/>
-      <c r="AB20" s="193"/>
-      <c r="AC20" s="193"/>
-      <c r="AD20" s="193"/>
-      <c r="AE20" s="193"/>
-      <c r="AF20" s="193"/>
-      <c r="AG20" s="193"/>
-      <c r="AH20" s="193"/>
-      <c r="AI20" s="193"/>
-      <c r="AJ20" s="194"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="194"/>
+      <c r="AF20" s="194"/>
+      <c r="AG20" s="194"/>
+      <c r="AH20" s="194"/>
+      <c r="AI20" s="194"/>
+      <c r="AJ20" s="195"/>
       <c r="AL20" s="127">
         <v>11</v>
       </c>
@@ -63165,41 +63108,41 @@
       </c>
     </row>
     <row r="21" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B21" s="192"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="193"/>
-      <c r="N21" s="193"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="193"/>
-      <c r="S21" s="193"/>
-      <c r="T21" s="193"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="193"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="193"/>
-      <c r="Y21" s="193"/>
-      <c r="Z21" s="193"/>
-      <c r="AA21" s="193"/>
-      <c r="AB21" s="193"/>
-      <c r="AC21" s="193"/>
-      <c r="AD21" s="193"/>
-      <c r="AE21" s="193"/>
-      <c r="AF21" s="193"/>
-      <c r="AG21" s="193"/>
-      <c r="AH21" s="193"/>
-      <c r="AI21" s="193"/>
-      <c r="AJ21" s="194"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="194"/>
+      <c r="AE21" s="194"/>
+      <c r="AF21" s="194"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="194"/>
+      <c r="AI21" s="194"/>
+      <c r="AJ21" s="195"/>
       <c r="AL21" s="127">
         <v>12</v>
       </c>
@@ -63301,41 +63244,41 @@
       </c>
     </row>
     <row r="22" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="193"/>
-      <c r="P22" s="193"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="193"/>
-      <c r="S22" s="193"/>
-      <c r="T22" s="193"/>
-      <c r="U22" s="193"/>
-      <c r="V22" s="193"/>
-      <c r="W22" s="193"/>
-      <c r="X22" s="193"/>
-      <c r="Y22" s="193"/>
-      <c r="Z22" s="193"/>
-      <c r="AA22" s="193"/>
-      <c r="AB22" s="193"/>
-      <c r="AC22" s="193"/>
-      <c r="AD22" s="193"/>
-      <c r="AE22" s="193"/>
-      <c r="AF22" s="193"/>
-      <c r="AG22" s="193"/>
-      <c r="AH22" s="193"/>
-      <c r="AI22" s="193"/>
-      <c r="AJ22" s="194"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="194"/>
+      <c r="AE22" s="194"/>
+      <c r="AF22" s="194"/>
+      <c r="AG22" s="194"/>
+      <c r="AH22" s="194"/>
+      <c r="AI22" s="194"/>
+      <c r="AJ22" s="195"/>
       <c r="AL22" s="127">
         <v>13</v>
       </c>
@@ -63437,41 +63380,41 @@
       </c>
     </row>
     <row r="23" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B23" s="192"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="193"/>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="193"/>
-      <c r="Z23" s="193"/>
-      <c r="AA23" s="193"/>
-      <c r="AB23" s="193"/>
-      <c r="AC23" s="193"/>
-      <c r="AD23" s="193"/>
-      <c r="AE23" s="193"/>
-      <c r="AF23" s="193"/>
-      <c r="AG23" s="193"/>
-      <c r="AH23" s="193"/>
-      <c r="AI23" s="193"/>
-      <c r="AJ23" s="194"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="194"/>
+      <c r="AF23" s="194"/>
+      <c r="AG23" s="194"/>
+      <c r="AH23" s="194"/>
+      <c r="AI23" s="194"/>
+      <c r="AJ23" s="195"/>
       <c r="AL23" s="127">
         <v>14</v>
       </c>
@@ -63573,41 +63516,41 @@
       </c>
     </row>
     <row r="24" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B24" s="192"/>
-      <c r="C24" s="193"/>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="193"/>
-      <c r="L24" s="193"/>
-      <c r="M24" s="193"/>
-      <c r="N24" s="193"/>
-      <c r="O24" s="193"/>
-      <c r="P24" s="193"/>
-      <c r="Q24" s="193"/>
-      <c r="R24" s="193"/>
-      <c r="S24" s="193"/>
-      <c r="T24" s="193"/>
-      <c r="U24" s="193"/>
-      <c r="V24" s="193"/>
-      <c r="W24" s="193"/>
-      <c r="X24" s="193"/>
-      <c r="Y24" s="193"/>
-      <c r="Z24" s="193"/>
-      <c r="AA24" s="193"/>
-      <c r="AB24" s="193"/>
-      <c r="AC24" s="193"/>
-      <c r="AD24" s="193"/>
-      <c r="AE24" s="193"/>
-      <c r="AF24" s="193"/>
-      <c r="AG24" s="193"/>
-      <c r="AH24" s="193"/>
-      <c r="AI24" s="193"/>
-      <c r="AJ24" s="194"/>
+      <c r="B24" s="193"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="194"/>
+      <c r="AE24" s="194"/>
+      <c r="AF24" s="194"/>
+      <c r="AG24" s="194"/>
+      <c r="AH24" s="194"/>
+      <c r="AI24" s="194"/>
+      <c r="AJ24" s="195"/>
       <c r="AL24" s="127">
         <v>15</v>
       </c>
@@ -63709,41 +63652,41 @@
       </c>
     </row>
     <row r="25" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B25" s="192"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
-      <c r="L25" s="193"/>
-      <c r="M25" s="193"/>
-      <c r="N25" s="193"/>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="193"/>
-      <c r="R25" s="193"/>
-      <c r="S25" s="193"/>
-      <c r="T25" s="193"/>
-      <c r="U25" s="193"/>
-      <c r="V25" s="193"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="193"/>
-      <c r="Y25" s="193"/>
-      <c r="Z25" s="193"/>
-      <c r="AA25" s="193"/>
-      <c r="AB25" s="193"/>
-      <c r="AC25" s="193"/>
-      <c r="AD25" s="193"/>
-      <c r="AE25" s="193"/>
-      <c r="AF25" s="193"/>
-      <c r="AG25" s="193"/>
-      <c r="AH25" s="193"/>
-      <c r="AI25" s="193"/>
-      <c r="AJ25" s="194"/>
+      <c r="B25" s="193"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="194"/>
+      <c r="AF25" s="194"/>
+      <c r="AG25" s="194"/>
+      <c r="AH25" s="194"/>
+      <c r="AI25" s="194"/>
+      <c r="AJ25" s="195"/>
       <c r="AL25" s="127">
         <v>16</v>
       </c>
@@ -63845,41 +63788,41 @@
       </c>
     </row>
     <row r="26" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B26" s="192"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="193"/>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="193"/>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="193"/>
-      <c r="Y26" s="193"/>
-      <c r="Z26" s="193"/>
-      <c r="AA26" s="193"/>
-      <c r="AB26" s="193"/>
-      <c r="AC26" s="193"/>
-      <c r="AD26" s="193"/>
-      <c r="AE26" s="193"/>
-      <c r="AF26" s="193"/>
-      <c r="AG26" s="193"/>
-      <c r="AH26" s="193"/>
-      <c r="AI26" s="193"/>
-      <c r="AJ26" s="194"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="194"/>
+      <c r="AF26" s="194"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="194"/>
+      <c r="AI26" s="194"/>
+      <c r="AJ26" s="195"/>
       <c r="AL26" s="127">
         <v>17</v>
       </c>
@@ -63981,41 +63924,41 @@
       </c>
     </row>
     <row r="27" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B27" s="192"/>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="193"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-      <c r="V27" s="193"/>
-      <c r="W27" s="193"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="193"/>
-      <c r="Z27" s="193"/>
-      <c r="AA27" s="193"/>
-      <c r="AB27" s="193"/>
-      <c r="AC27" s="193"/>
-      <c r="AD27" s="193"/>
-      <c r="AE27" s="193"/>
-      <c r="AF27" s="193"/>
-      <c r="AG27" s="193"/>
-      <c r="AH27" s="193"/>
-      <c r="AI27" s="193"/>
-      <c r="AJ27" s="194"/>
+      <c r="B27" s="193"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="194"/>
+      <c r="AE27" s="194"/>
+      <c r="AF27" s="194"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="194"/>
+      <c r="AI27" s="194"/>
+      <c r="AJ27" s="195"/>
       <c r="AL27" s="127">
         <v>18</v>
       </c>
@@ -64117,41 +64060,41 @@
       </c>
     </row>
     <row r="28" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B28" s="192"/>
-      <c r="C28" s="193"/>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="193"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="193"/>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="193"/>
-      <c r="AG28" s="193"/>
-      <c r="AH28" s="193"/>
-      <c r="AI28" s="193"/>
-      <c r="AJ28" s="194"/>
+      <c r="B28" s="193"/>
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="194"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="194"/>
+      <c r="AE28" s="194"/>
+      <c r="AF28" s="194"/>
+      <c r="AG28" s="194"/>
+      <c r="AH28" s="194"/>
+      <c r="AI28" s="194"/>
+      <c r="AJ28" s="195"/>
       <c r="AL28" s="127">
         <v>19</v>
       </c>
@@ -64253,41 +64196,41 @@
       </c>
     </row>
     <row r="29" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B29" s="192"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="193"/>
-      <c r="L29" s="193"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="193"/>
-      <c r="P29" s="193"/>
-      <c r="Q29" s="193"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="193"/>
-      <c r="U29" s="193"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="193"/>
-      <c r="Y29" s="193"/>
-      <c r="Z29" s="193"/>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="193"/>
-      <c r="AC29" s="193"/>
-      <c r="AD29" s="193"/>
-      <c r="AE29" s="193"/>
-      <c r="AF29" s="193"/>
-      <c r="AG29" s="193"/>
-      <c r="AH29" s="193"/>
-      <c r="AI29" s="193"/>
-      <c r="AJ29" s="194"/>
+      <c r="B29" s="193"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="194"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="194"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="194"/>
+      <c r="AI29" s="194"/>
+      <c r="AJ29" s="195"/>
       <c r="AL29" s="127">
         <v>20</v>
       </c>
@@ -64389,41 +64332,41 @@
       </c>
     </row>
     <row r="30" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B30" s="192"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="193"/>
-      <c r="L30" s="193"/>
-      <c r="M30" s="193"/>
-      <c r="N30" s="193"/>
-      <c r="O30" s="193"/>
-      <c r="P30" s="193"/>
-      <c r="Q30" s="193"/>
-      <c r="R30" s="193"/>
-      <c r="S30" s="193"/>
-      <c r="T30" s="193"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="193"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="193"/>
-      <c r="Y30" s="193"/>
-      <c r="Z30" s="193"/>
-      <c r="AA30" s="193"/>
-      <c r="AB30" s="193"/>
-      <c r="AC30" s="193"/>
-      <c r="AD30" s="193"/>
-      <c r="AE30" s="193"/>
-      <c r="AF30" s="193"/>
-      <c r="AG30" s="193"/>
-      <c r="AH30" s="193"/>
-      <c r="AI30" s="193"/>
-      <c r="AJ30" s="194"/>
+      <c r="B30" s="193"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="194"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="194"/>
+      <c r="W30" s="194"/>
+      <c r="X30" s="194"/>
+      <c r="Y30" s="194"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="194"/>
+      <c r="AF30" s="194"/>
+      <c r="AG30" s="194"/>
+      <c r="AH30" s="194"/>
+      <c r="AI30" s="194"/>
+      <c r="AJ30" s="195"/>
       <c r="AL30" s="127">
         <v>21</v>
       </c>
@@ -64525,41 +64468,41 @@
       </c>
     </row>
     <row r="31" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B31" s="192"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
-      <c r="M31" s="193"/>
-      <c r="N31" s="193"/>
-      <c r="O31" s="193"/>
-      <c r="P31" s="193"/>
-      <c r="Q31" s="193"/>
-      <c r="R31" s="193"/>
-      <c r="S31" s="193"/>
-      <c r="T31" s="193"/>
-      <c r="U31" s="193"/>
-      <c r="V31" s="193"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="193"/>
-      <c r="Y31" s="193"/>
-      <c r="Z31" s="193"/>
-      <c r="AA31" s="193"/>
-      <c r="AB31" s="193"/>
-      <c r="AC31" s="193"/>
-      <c r="AD31" s="193"/>
-      <c r="AE31" s="193"/>
-      <c r="AF31" s="193"/>
-      <c r="AG31" s="193"/>
-      <c r="AH31" s="193"/>
-      <c r="AI31" s="193"/>
-      <c r="AJ31" s="194"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="194"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="194"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="194"/>
+      <c r="AJ31" s="195"/>
       <c r="AL31" s="127">
         <v>22</v>
       </c>
@@ -64661,41 +64604,41 @@
       </c>
     </row>
     <row r="32" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B32" s="192"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
-      <c r="M32" s="193"/>
-      <c r="N32" s="193"/>
-      <c r="O32" s="193"/>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="193"/>
-      <c r="R32" s="193"/>
-      <c r="S32" s="193"/>
-      <c r="T32" s="193"/>
-      <c r="U32" s="193"/>
-      <c r="V32" s="193"/>
-      <c r="W32" s="193"/>
-      <c r="X32" s="193"/>
-      <c r="Y32" s="193"/>
-      <c r="Z32" s="193"/>
-      <c r="AA32" s="193"/>
-      <c r="AB32" s="193"/>
-      <c r="AC32" s="193"/>
-      <c r="AD32" s="193"/>
-      <c r="AE32" s="193"/>
-      <c r="AF32" s="193"/>
-      <c r="AG32" s="193"/>
-      <c r="AH32" s="193"/>
-      <c r="AI32" s="193"/>
-      <c r="AJ32" s="194"/>
+      <c r="B32" s="193"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="194"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194"/>
+      <c r="AD32" s="194"/>
+      <c r="AE32" s="194"/>
+      <c r="AF32" s="194"/>
+      <c r="AG32" s="194"/>
+      <c r="AH32" s="194"/>
+      <c r="AI32" s="194"/>
+      <c r="AJ32" s="195"/>
       <c r="AL32" s="127">
         <v>23</v>
       </c>
@@ -64797,41 +64740,41 @@
       </c>
     </row>
     <row r="33" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B33" s="192"/>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="193"/>
-      <c r="M33" s="193"/>
-      <c r="N33" s="193"/>
-      <c r="O33" s="193"/>
-      <c r="P33" s="193"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="193"/>
-      <c r="X33" s="193"/>
-      <c r="Y33" s="193"/>
-      <c r="Z33" s="193"/>
-      <c r="AA33" s="193"/>
-      <c r="AB33" s="193"/>
-      <c r="AC33" s="193"/>
-      <c r="AD33" s="193"/>
-      <c r="AE33" s="193"/>
-      <c r="AF33" s="193"/>
-      <c r="AG33" s="193"/>
-      <c r="AH33" s="193"/>
-      <c r="AI33" s="193"/>
-      <c r="AJ33" s="194"/>
+      <c r="B33" s="193"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="194"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="194"/>
+      <c r="AF33" s="194"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="194"/>
+      <c r="AI33" s="194"/>
+      <c r="AJ33" s="195"/>
       <c r="AL33" s="127">
         <v>24</v>
       </c>
@@ -64933,41 +64876,41 @@
       </c>
     </row>
     <row r="34" spans="2:71" x14ac:dyDescent="0.3">
-      <c r="B34" s="195"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="196"/>
-      <c r="M34" s="196"/>
-      <c r="N34" s="196"/>
-      <c r="O34" s="196"/>
-      <c r="P34" s="196"/>
-      <c r="Q34" s="196"/>
-      <c r="R34" s="196"/>
-      <c r="S34" s="196"/>
-      <c r="T34" s="196"/>
-      <c r="U34" s="196"/>
-      <c r="V34" s="196"/>
-      <c r="W34" s="196"/>
-      <c r="X34" s="196"/>
-      <c r="Y34" s="196"/>
-      <c r="Z34" s="196"/>
-      <c r="AA34" s="196"/>
-      <c r="AB34" s="196"/>
-      <c r="AC34" s="196"/>
-      <c r="AD34" s="196"/>
-      <c r="AE34" s="196"/>
-      <c r="AF34" s="196"/>
-      <c r="AG34" s="196"/>
-      <c r="AH34" s="196"/>
-      <c r="AI34" s="196"/>
-      <c r="AJ34" s="197"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="197"/>
+      <c r="N34" s="197"/>
+      <c r="O34" s="197"/>
+      <c r="P34" s="197"/>
+      <c r="Q34" s="197"/>
+      <c r="R34" s="197"/>
+      <c r="S34" s="197"/>
+      <c r="T34" s="197"/>
+      <c r="U34" s="197"/>
+      <c r="V34" s="197"/>
+      <c r="W34" s="197"/>
+      <c r="X34" s="197"/>
+      <c r="Y34" s="197"/>
+      <c r="Z34" s="197"/>
+      <c r="AA34" s="197"/>
+      <c r="AB34" s="197"/>
+      <c r="AC34" s="197"/>
+      <c r="AD34" s="197"/>
+      <c r="AE34" s="197"/>
+      <c r="AF34" s="197"/>
+      <c r="AG34" s="197"/>
+      <c r="AH34" s="197"/>
+      <c r="AI34" s="197"/>
+      <c r="AJ34" s="198"/>
       <c r="AL34" s="127">
         <v>25</v>
       </c>
